--- a/Manual Testing (Bikroy.com)/TestCase_Bikroy.com.xlsx
+++ b/Manual Testing (Bikroy.com)/TestCase_Bikroy.com.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,13 @@
     <sheet name="Report" sheetId="3" r:id="rId4"/>
     <sheet name="TestCase" sheetId="4" r:id="rId5"/>
     <sheet name="Bug Report" sheetId="5" r:id="rId6"/>
-    <sheet name="Test Metrics" sheetId="6" r:id="rId7"/>
+    <sheet name="Test Metrics" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="Remember_Me_checkbox_error" localSheetId="6">TestCase!#REF!</definedName>
     <definedName name="Remember_Me_checkbox_error">TestCase!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -3492,6 +3493,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3504,17 +3509,20 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3526,74 +3534,17 @@
     <xf numFmtId="0" fontId="7" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3637,6 +3588,63 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="31" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="45" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3698,15 +3706,8 @@
     <xf numFmtId="0" fontId="36" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4222,6 +4223,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4309,6 +4311,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
@@ -4336,7 +4339,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-FEC7-42DB-822E-9B49AB70D8DE}"/>
                 </c:ext>
@@ -4344,6 +4349,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
@@ -4371,7 +4377,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-FEC7-42DB-822E-9B49AB70D8DE}"/>
                 </c:ext>
@@ -4379,6 +4387,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
@@ -4406,7 +4415,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-FEC7-42DB-822E-9B49AB70D8DE}"/>
                 </c:ext>
@@ -4414,6 +4425,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
@@ -4441,7 +4453,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-FEC7-42DB-822E-9B49AB70D8DE}"/>
                 </c:ext>
@@ -4549,6 +4563,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -5005,10 +5020,10 @@
       <c r="A2" s="239" t="s">
         <v>305</v>
       </c>
-      <c r="B2" s="292" t="s">
+      <c r="B2" s="294" t="s">
         <v>326</v>
       </c>
-      <c r="C2" s="292" t="s">
+      <c r="C2" s="294" t="s">
         <v>269</v>
       </c>
       <c r="D2" s="237" t="s">
@@ -5034,8 +5049,8 @@
       <c r="A3" s="239" t="s">
         <v>306</v>
       </c>
-      <c r="B3" s="293"/>
-      <c r="C3" s="293"/>
+      <c r="B3" s="295"/>
+      <c r="C3" s="295"/>
       <c r="D3" s="237" t="s">
         <v>280</v>
       </c>
@@ -5059,8 +5074,8 @@
       <c r="A4" s="239" t="s">
         <v>307</v>
       </c>
-      <c r="B4" s="293"/>
-      <c r="C4" s="293"/>
+      <c r="B4" s="295"/>
+      <c r="C4" s="295"/>
       <c r="D4" s="237" t="s">
         <v>281</v>
       </c>
@@ -5084,8 +5099,8 @@
       <c r="A5" s="239" t="s">
         <v>308</v>
       </c>
-      <c r="B5" s="293"/>
-      <c r="C5" s="293"/>
+      <c r="B5" s="295"/>
+      <c r="C5" s="295"/>
       <c r="D5" s="237" t="s">
         <v>282</v>
       </c>
@@ -5107,8 +5122,8 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="239"/>
-      <c r="B6" s="293"/>
-      <c r="C6" s="294"/>
+      <c r="B6" s="295"/>
+      <c r="C6" s="296"/>
       <c r="D6" s="251" t="s">
         <v>440</v>
       </c>
@@ -5132,11 +5147,11 @@
       <c r="A7" s="239" t="s">
         <v>309</v>
       </c>
-      <c r="B7" s="293"/>
+      <c r="B7" s="295"/>
       <c r="C7" s="237" t="s">
         <v>291</v>
       </c>
-      <c r="D7" s="291" t="s">
+      <c r="D7" s="293" t="s">
         <v>283</v>
       </c>
       <c r="E7" s="237" t="s">
@@ -5161,9 +5176,9 @@
       <c r="A8" s="239" t="s">
         <v>310</v>
       </c>
-      <c r="B8" s="293"/>
+      <c r="B8" s="295"/>
       <c r="C8" s="237"/>
-      <c r="D8" s="291"/>
+      <c r="D8" s="293"/>
       <c r="E8" s="237" t="s">
         <v>292</v>
       </c>
@@ -5186,9 +5201,9 @@
       <c r="A9" s="239" t="s">
         <v>311</v>
       </c>
-      <c r="B9" s="293"/>
+      <c r="B9" s="295"/>
       <c r="C9" s="237"/>
-      <c r="D9" s="291"/>
+      <c r="D9" s="293"/>
       <c r="E9" s="237" t="s">
         <v>285</v>
       </c>
@@ -5211,10 +5226,10 @@
       <c r="A10" s="239" t="s">
         <v>312</v>
       </c>
-      <c r="B10" s="293"/>
+      <c r="B10" s="295"/>
       <c r="C10" s="237"/>
-      <c r="D10" s="291"/>
-      <c r="E10" s="291" t="s">
+      <c r="D10" s="293"/>
+      <c r="E10" s="293" t="s">
         <v>286</v>
       </c>
       <c r="F10" s="237" t="s">
@@ -5238,10 +5253,10 @@
       <c r="A11" s="239" t="s">
         <v>313</v>
       </c>
-      <c r="B11" s="293"/>
+      <c r="B11" s="295"/>
       <c r="C11" s="237"/>
-      <c r="D11" s="291"/>
-      <c r="E11" s="291"/>
+      <c r="D11" s="293"/>
+      <c r="E11" s="293"/>
       <c r="F11" s="237" t="s">
         <v>288</v>
       </c>
@@ -5263,10 +5278,10 @@
       <c r="A12" s="239" t="s">
         <v>314</v>
       </c>
-      <c r="B12" s="293"/>
+      <c r="B12" s="295"/>
       <c r="C12" s="237"/>
-      <c r="D12" s="291"/>
-      <c r="E12" s="291"/>
+      <c r="D12" s="293"/>
+      <c r="E12" s="293"/>
       <c r="F12" s="237" t="s">
         <v>289</v>
       </c>
@@ -5288,9 +5303,9 @@
       <c r="A13" s="239" t="s">
         <v>315</v>
       </c>
-      <c r="B13" s="293"/>
+      <c r="B13" s="295"/>
       <c r="C13" s="237"/>
-      <c r="D13" s="291"/>
+      <c r="D13" s="293"/>
       <c r="E13" s="237" t="s">
         <v>290</v>
       </c>
@@ -5313,7 +5328,7 @@
       <c r="A14" s="239" t="s">
         <v>316</v>
       </c>
-      <c r="B14" s="293"/>
+      <c r="B14" s="295"/>
       <c r="C14" s="237"/>
       <c r="D14" s="237" t="s">
         <v>293</v>
@@ -5340,7 +5355,7 @@
       <c r="A15" s="239" t="s">
         <v>317</v>
       </c>
-      <c r="B15" s="294"/>
+      <c r="B15" s="296"/>
       <c r="C15" s="237"/>
       <c r="D15" s="237"/>
       <c r="E15" s="240" t="s">
@@ -5556,7 +5571,7 @@
       <c r="A20" s="239" t="s">
         <v>322</v>
       </c>
-      <c r="B20" s="292" t="s">
+      <c r="B20" s="294" t="s">
         <v>330</v>
       </c>
       <c r="C20" s="240" t="s">
@@ -5612,7 +5627,7 @@
       <c r="A21" s="239" t="s">
         <v>323</v>
       </c>
-      <c r="B21" s="293"/>
+      <c r="B21" s="295"/>
       <c r="C21" s="240" t="s">
         <v>302</v>
       </c>
@@ -5666,7 +5681,7 @@
       <c r="A22" s="239" t="s">
         <v>324</v>
       </c>
-      <c r="B22" s="293"/>
+      <c r="B22" s="295"/>
       <c r="C22" s="240" t="s">
         <v>303</v>
       </c>
@@ -5720,7 +5735,7 @@
       <c r="A23" s="239" t="s">
         <v>325</v>
       </c>
-      <c r="B23" s="294"/>
+      <c r="B23" s="296"/>
       <c r="C23" s="237" t="s">
         <v>304</v>
       </c>
@@ -6739,39 +6754,39 @@
     <row r="2" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="3" spans="1:26" ht="8.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="25.5" customHeight="1">
-      <c r="B4" s="307" t="s">
+      <c r="B4" s="297" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="307"/>
-      <c r="D4" s="307"/>
-      <c r="E4" s="307"/>
-      <c r="F4" s="307"/>
-      <c r="G4" s="307"/>
+      <c r="C4" s="297"/>
+      <c r="D4" s="297"/>
+      <c r="E4" s="297"/>
+      <c r="F4" s="297"/>
+      <c r="G4" s="297"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="303" t="s">
+      <c r="C5" s="298" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="303"/>
-      <c r="E5" s="303"/>
-      <c r="F5" s="303"/>
-      <c r="G5" s="303"/>
+      <c r="D5" s="298"/>
+      <c r="E5" s="298"/>
+      <c r="F5" s="298"/>
+      <c r="G5" s="298"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="303">
+      <c r="C6" s="298">
         <v>1</v>
       </c>
-      <c r="D6" s="303"/>
-      <c r="E6" s="303"/>
-      <c r="F6" s="303"/>
-      <c r="G6" s="303"/>
+      <c r="D6" s="298"/>
+      <c r="E6" s="298"/>
+      <c r="F6" s="298"/>
+      <c r="G6" s="298"/>
       <c r="I6" s="4">
         <f>C14</f>
         <v>40</v>
@@ -6786,13 +6801,13 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="303" t="s">
+      <c r="C7" s="298" t="s">
         <v>193</v>
       </c>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="303"/>
+      <c r="D7" s="298"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="298"/>
       <c r="I7" s="4">
         <f>D14</f>
         <v>6</v>
@@ -6807,13 +6822,13 @@
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="303" t="s">
+      <c r="C8" s="298" t="s">
         <v>193</v>
       </c>
-      <c r="D8" s="303"/>
-      <c r="E8" s="303"/>
-      <c r="F8" s="303"/>
-      <c r="G8" s="303"/>
+      <c r="D8" s="298"/>
+      <c r="E8" s="298"/>
+      <c r="F8" s="298"/>
+      <c r="G8" s="298"/>
       <c r="I8" s="4">
         <f>E14</f>
         <v>0</v>
@@ -6840,13 +6855,13 @@
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="303" t="s">
+      <c r="C9" s="298" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="303"/>
-      <c r="E9" s="303"/>
-      <c r="F9" s="303"/>
-      <c r="G9" s="303"/>
+      <c r="D9" s="298"/>
+      <c r="E9" s="298"/>
+      <c r="F9" s="298"/>
+      <c r="G9" s="298"/>
       <c r="I9" s="4">
         <f>F14</f>
         <v>0</v>
@@ -6862,22 +6877,22 @@
       <c r="P9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B10" s="304" t="s">
+      <c r="B10" s="299" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="304"/>
-      <c r="D10" s="304"/>
-      <c r="E10" s="304"/>
-      <c r="F10" s="304"/>
-      <c r="G10" s="304"/>
+      <c r="C10" s="299"/>
+      <c r="D10" s="299"/>
+      <c r="E10" s="299"/>
+      <c r="F10" s="299"/>
+      <c r="G10" s="299"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B11" s="304"/>
-      <c r="C11" s="304"/>
-      <c r="D11" s="304"/>
-      <c r="E11" s="304"/>
-      <c r="F11" s="304"/>
-      <c r="G11" s="304"/>
+      <c r="B11" s="299"/>
+      <c r="C11" s="299"/>
+      <c r="D11" s="299"/>
+      <c r="E11" s="299"/>
+      <c r="F11" s="299"/>
+      <c r="G11" s="299"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="B12" s="10" t="s">
@@ -7012,21 +7027,21 @@
       <c r="R16" s="13"/>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B17" s="305" t="s">
+      <c r="B17" s="300" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="305"/>
-      <c r="D17" s="305"/>
-      <c r="E17" s="305"/>
-      <c r="F17" s="305"/>
-      <c r="G17" s="305"/>
+      <c r="C17" s="300"/>
+      <c r="D17" s="300"/>
+      <c r="E17" s="300"/>
+      <c r="F17" s="300"/>
+      <c r="G17" s="300"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B18" s="306" t="s">
+      <c r="B18" s="301" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="306"/>
-      <c r="D18" s="306"/>
+      <c r="C18" s="301"/>
+      <c r="D18" s="301"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28" t="s">
         <v>23</v>
@@ -7036,11 +7051,11 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B19" s="299" t="s">
+      <c r="B19" s="302" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="299"/>
-      <c r="D19" s="299"/>
+      <c r="C19" s="302"/>
+      <c r="D19" s="302"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29" t="s">
         <v>26</v>
@@ -7050,11 +7065,11 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B20" s="299" t="s">
+      <c r="B20" s="302" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="299"/>
-      <c r="D20" s="299"/>
+      <c r="C20" s="302"/>
+      <c r="D20" s="302"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29" t="s">
         <v>26</v>
@@ -7065,306 +7080,306 @@
     </row>
     <row r="21" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="22" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B22" s="300"/>
-      <c r="C22" s="301" t="s">
+      <c r="B22" s="303"/>
+      <c r="C22" s="304" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="302" t="s">
+      <c r="D22" s="305" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="302"/>
-      <c r="F22" s="302"/>
-      <c r="G22" s="302"/>
+      <c r="E22" s="305"/>
+      <c r="F22" s="305"/>
+      <c r="G22" s="305"/>
     </row>
     <row r="23" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B23" s="300"/>
-      <c r="C23" s="300"/>
-      <c r="D23" s="302"/>
-      <c r="E23" s="302"/>
-      <c r="F23" s="302"/>
-      <c r="G23" s="302"/>
+      <c r="B23" s="303"/>
+      <c r="C23" s="303"/>
+      <c r="D23" s="305"/>
+      <c r="E23" s="305"/>
+      <c r="F23" s="305"/>
+      <c r="G23" s="305"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B24" s="300"/>
-      <c r="C24" s="300"/>
-      <c r="D24" s="302"/>
-      <c r="E24" s="302"/>
-      <c r="F24" s="302"/>
-      <c r="G24" s="302"/>
+      <c r="B24" s="303"/>
+      <c r="C24" s="303"/>
+      <c r="D24" s="305"/>
+      <c r="E24" s="305"/>
+      <c r="F24" s="305"/>
+      <c r="G24" s="305"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B25" s="300"/>
-      <c r="C25" s="300"/>
-      <c r="D25" s="302"/>
-      <c r="E25" s="302"/>
-      <c r="F25" s="302"/>
-      <c r="G25" s="302"/>
+      <c r="B25" s="303"/>
+      <c r="C25" s="303"/>
+      <c r="D25" s="305"/>
+      <c r="E25" s="305"/>
+      <c r="F25" s="305"/>
+      <c r="G25" s="305"/>
     </row>
     <row r="26" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B26" s="295" t="s">
+      <c r="B26" s="306" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="298" t="s">
+      <c r="C26" s="307" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="297" t="s">
+      <c r="D26" s="308" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="297"/>
-      <c r="F26" s="297"/>
-      <c r="G26" s="297"/>
+      <c r="E26" s="308"/>
+      <c r="F26" s="308"/>
+      <c r="G26" s="308"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B27" s="295"/>
-      <c r="C27" s="295"/>
-      <c r="D27" s="297"/>
-      <c r="E27" s="297"/>
-      <c r="F27" s="297"/>
-      <c r="G27" s="297"/>
+      <c r="B27" s="306"/>
+      <c r="C27" s="306"/>
+      <c r="D27" s="308"/>
+      <c r="E27" s="308"/>
+      <c r="F27" s="308"/>
+      <c r="G27" s="308"/>
     </row>
     <row r="28" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B28" s="295"/>
-      <c r="C28" s="295"/>
-      <c r="D28" s="297"/>
-      <c r="E28" s="297"/>
-      <c r="F28" s="297"/>
-      <c r="G28" s="297"/>
+      <c r="B28" s="306"/>
+      <c r="C28" s="306"/>
+      <c r="D28" s="308"/>
+      <c r="E28" s="308"/>
+      <c r="F28" s="308"/>
+      <c r="G28" s="308"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B29" s="295"/>
-      <c r="C29" s="295"/>
-      <c r="D29" s="297"/>
-      <c r="E29" s="297"/>
-      <c r="F29" s="297"/>
-      <c r="G29" s="297"/>
+      <c r="B29" s="306"/>
+      <c r="C29" s="306"/>
+      <c r="D29" s="308"/>
+      <c r="E29" s="308"/>
+      <c r="F29" s="308"/>
+      <c r="G29" s="308"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B30" s="295" t="s">
+      <c r="B30" s="306" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="298" t="s">
+      <c r="C30" s="307" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="297" t="s">
+      <c r="D30" s="308" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="297"/>
-      <c r="F30" s="297"/>
-      <c r="G30" s="297"/>
+      <c r="E30" s="308"/>
+      <c r="F30" s="308"/>
+      <c r="G30" s="308"/>
     </row>
     <row r="31" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B31" s="295"/>
-      <c r="C31" s="295"/>
-      <c r="D31" s="297"/>
-      <c r="E31" s="297"/>
-      <c r="F31" s="297"/>
-      <c r="G31" s="297"/>
+      <c r="B31" s="306"/>
+      <c r="C31" s="306"/>
+      <c r="D31" s="308"/>
+      <c r="E31" s="308"/>
+      <c r="F31" s="308"/>
+      <c r="G31" s="308"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B32" s="295"/>
-      <c r="C32" s="295"/>
-      <c r="D32" s="297"/>
-      <c r="E32" s="297"/>
-      <c r="F32" s="297"/>
-      <c r="G32" s="297"/>
+      <c r="B32" s="306"/>
+      <c r="C32" s="306"/>
+      <c r="D32" s="308"/>
+      <c r="E32" s="308"/>
+      <c r="F32" s="308"/>
+      <c r="G32" s="308"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B33" s="295"/>
-      <c r="C33" s="295"/>
-      <c r="D33" s="297"/>
-      <c r="E33" s="297"/>
-      <c r="F33" s="297"/>
-      <c r="G33" s="297"/>
+      <c r="B33" s="306"/>
+      <c r="C33" s="306"/>
+      <c r="D33" s="308"/>
+      <c r="E33" s="308"/>
+      <c r="F33" s="308"/>
+      <c r="G33" s="308"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B34" s="295" t="s">
+      <c r="B34" s="306" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="298" t="s">
+      <c r="C34" s="307" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="297" t="s">
+      <c r="D34" s="308" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="297"/>
-      <c r="F34" s="297"/>
-      <c r="G34" s="297"/>
+      <c r="E34" s="308"/>
+      <c r="F34" s="308"/>
+      <c r="G34" s="308"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B35" s="295"/>
-      <c r="C35" s="295"/>
-      <c r="D35" s="297"/>
-      <c r="E35" s="297"/>
-      <c r="F35" s="297"/>
-      <c r="G35" s="297"/>
+      <c r="B35" s="306"/>
+      <c r="C35" s="306"/>
+      <c r="D35" s="308"/>
+      <c r="E35" s="308"/>
+      <c r="F35" s="308"/>
+      <c r="G35" s="308"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="295"/>
-      <c r="C36" s="295"/>
-      <c r="D36" s="297"/>
-      <c r="E36" s="297"/>
-      <c r="F36" s="297"/>
-      <c r="G36" s="297"/>
+      <c r="B36" s="306"/>
+      <c r="C36" s="306"/>
+      <c r="D36" s="308"/>
+      <c r="E36" s="308"/>
+      <c r="F36" s="308"/>
+      <c r="G36" s="308"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B37" s="295"/>
-      <c r="C37" s="295"/>
-      <c r="D37" s="297"/>
-      <c r="E37" s="297"/>
-      <c r="F37" s="297"/>
-      <c r="G37" s="297"/>
+      <c r="B37" s="306"/>
+      <c r="C37" s="306"/>
+      <c r="D37" s="308"/>
+      <c r="E37" s="308"/>
+      <c r="F37" s="308"/>
+      <c r="G37" s="308"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B38" s="295" t="s">
+      <c r="B38" s="306" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="298" t="s">
+      <c r="C38" s="307" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="297" t="s">
+      <c r="D38" s="308" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="297"/>
-      <c r="F38" s="297"/>
-      <c r="G38" s="297"/>
+      <c r="E38" s="308"/>
+      <c r="F38" s="308"/>
+      <c r="G38" s="308"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B39" s="295"/>
-      <c r="C39" s="295"/>
-      <c r="D39" s="297"/>
-      <c r="E39" s="297"/>
-      <c r="F39" s="297"/>
-      <c r="G39" s="297"/>
+      <c r="B39" s="306"/>
+      <c r="C39" s="306"/>
+      <c r="D39" s="308"/>
+      <c r="E39" s="308"/>
+      <c r="F39" s="308"/>
+      <c r="G39" s="308"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B40" s="295"/>
-      <c r="C40" s="295"/>
-      <c r="D40" s="297"/>
-      <c r="E40" s="297"/>
-      <c r="F40" s="297"/>
-      <c r="G40" s="297"/>
+      <c r="B40" s="306"/>
+      <c r="C40" s="306"/>
+      <c r="D40" s="308"/>
+      <c r="E40" s="308"/>
+      <c r="F40" s="308"/>
+      <c r="G40" s="308"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B41" s="295"/>
-      <c r="C41" s="295"/>
-      <c r="D41" s="297"/>
-      <c r="E41" s="297"/>
-      <c r="F41" s="297"/>
-      <c r="G41" s="297"/>
+      <c r="B41" s="306"/>
+      <c r="C41" s="306"/>
+      <c r="D41" s="308"/>
+      <c r="E41" s="308"/>
+      <c r="F41" s="308"/>
+      <c r="G41" s="308"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B42" s="295" t="s">
+      <c r="B42" s="306" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="296" t="s">
+      <c r="C42" s="309" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="297" t="s">
+      <c r="D42" s="308" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="297"/>
-      <c r="F42" s="297"/>
-      <c r="G42" s="297"/>
+      <c r="E42" s="308"/>
+      <c r="F42" s="308"/>
+      <c r="G42" s="308"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B43" s="295"/>
-      <c r="C43" s="295"/>
-      <c r="D43" s="297"/>
-      <c r="E43" s="297"/>
-      <c r="F43" s="297"/>
-      <c r="G43" s="297"/>
+      <c r="B43" s="306"/>
+      <c r="C43" s="306"/>
+      <c r="D43" s="308"/>
+      <c r="E43" s="308"/>
+      <c r="F43" s="308"/>
+      <c r="G43" s="308"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B44" s="295"/>
-      <c r="C44" s="295"/>
-      <c r="D44" s="297"/>
-      <c r="E44" s="297"/>
-      <c r="F44" s="297"/>
-      <c r="G44" s="297"/>
+      <c r="B44" s="306"/>
+      <c r="C44" s="306"/>
+      <c r="D44" s="308"/>
+      <c r="E44" s="308"/>
+      <c r="F44" s="308"/>
+      <c r="G44" s="308"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B45" s="295"/>
-      <c r="C45" s="295"/>
-      <c r="D45" s="297"/>
-      <c r="E45" s="297"/>
-      <c r="F45" s="297"/>
-      <c r="G45" s="297"/>
+      <c r="B45" s="306"/>
+      <c r="C45" s="306"/>
+      <c r="D45" s="308"/>
+      <c r="E45" s="308"/>
+      <c r="F45" s="308"/>
+      <c r="G45" s="308"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B46" s="295" t="s">
+      <c r="B46" s="306" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="296" t="s">
+      <c r="C46" s="309" t="s">
         <v>41</v>
       </c>
-      <c r="D46" s="297" t="s">
+      <c r="D46" s="308" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="297"/>
-      <c r="F46" s="297"/>
-      <c r="G46" s="297"/>
+      <c r="E46" s="308"/>
+      <c r="F46" s="308"/>
+      <c r="G46" s="308"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B47" s="295"/>
-      <c r="C47" s="295"/>
-      <c r="D47" s="297"/>
-      <c r="E47" s="297"/>
-      <c r="F47" s="297"/>
-      <c r="G47" s="297"/>
+      <c r="B47" s="306"/>
+      <c r="C47" s="306"/>
+      <c r="D47" s="308"/>
+      <c r="E47" s="308"/>
+      <c r="F47" s="308"/>
+      <c r="G47" s="308"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B48" s="295"/>
-      <c r="C48" s="295"/>
-      <c r="D48" s="297"/>
-      <c r="E48" s="297"/>
-      <c r="F48" s="297"/>
-      <c r="G48" s="297"/>
+      <c r="B48" s="306"/>
+      <c r="C48" s="306"/>
+      <c r="D48" s="308"/>
+      <c r="E48" s="308"/>
+      <c r="F48" s="308"/>
+      <c r="G48" s="308"/>
     </row>
     <row r="49" spans="2:7" ht="33.75" customHeight="1">
-      <c r="B49" s="295"/>
-      <c r="C49" s="295"/>
-      <c r="D49" s="297"/>
-      <c r="E49" s="297"/>
-      <c r="F49" s="297"/>
-      <c r="G49" s="297"/>
+      <c r="B49" s="306"/>
+      <c r="C49" s="306"/>
+      <c r="D49" s="308"/>
+      <c r="E49" s="308"/>
+      <c r="F49" s="308"/>
+      <c r="G49" s="308"/>
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B50" s="295" t="s">
+      <c r="B50" s="306" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="296" t="s">
+      <c r="C50" s="309" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="297" t="s">
+      <c r="D50" s="308" t="s">
         <v>44</v>
       </c>
-      <c r="E50" s="297"/>
-      <c r="F50" s="297"/>
-      <c r="G50" s="297"/>
+      <c r="E50" s="308"/>
+      <c r="F50" s="308"/>
+      <c r="G50" s="308"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B51" s="295"/>
-      <c r="C51" s="295"/>
-      <c r="D51" s="297"/>
-      <c r="E51" s="297"/>
-      <c r="F51" s="297"/>
-      <c r="G51" s="297"/>
+      <c r="B51" s="306"/>
+      <c r="C51" s="306"/>
+      <c r="D51" s="308"/>
+      <c r="E51" s="308"/>
+      <c r="F51" s="308"/>
+      <c r="G51" s="308"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B52" s="295"/>
-      <c r="C52" s="295"/>
-      <c r="D52" s="297"/>
-      <c r="E52" s="297"/>
-      <c r="F52" s="297"/>
-      <c r="G52" s="297"/>
+      <c r="B52" s="306"/>
+      <c r="C52" s="306"/>
+      <c r="D52" s="308"/>
+      <c r="E52" s="308"/>
+      <c r="F52" s="308"/>
+      <c r="G52" s="308"/>
     </row>
     <row r="53" spans="2:7" ht="39" customHeight="1">
-      <c r="B53" s="295"/>
-      <c r="C53" s="295"/>
-      <c r="D53" s="297"/>
-      <c r="E53" s="297"/>
-      <c r="F53" s="297"/>
-      <c r="G53" s="297"/>
+      <c r="B53" s="306"/>
+      <c r="C53" s="306"/>
+      <c r="D53" s="308"/>
+      <c r="E53" s="308"/>
+      <c r="F53" s="308"/>
+      <c r="G53" s="308"/>
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="55" spans="2:7" ht="15.75" customHeight="1"/>
@@ -7565,29 +7580,6 @@
     <row r="250" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="B10:G11"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:G25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:G29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:G33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:G37"/>
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="C38:C41"/>
     <mergeCell ref="D38:G41"/>
@@ -7600,6 +7592,29 @@
     <mergeCell ref="B46:B49"/>
     <mergeCell ref="C46:C49"/>
     <mergeCell ref="D46:G49"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:G33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:G37"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:G25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:G29"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B10:G11"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -7611,7 +7626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD371"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
     </sheetView>
@@ -7636,11 +7651,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A1" s="332" t="s">
+      <c r="A1" s="316" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="332"/>
-      <c r="C1" s="332"/>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
       <c r="D1" s="226" t="s">
         <v>191</v>
       </c>
@@ -7660,10 +7675,10 @@
       <c r="J1" s="33"/>
       <c r="K1" s="33"/>
       <c r="L1" s="34"/>
-      <c r="M1" s="333" t="s">
+      <c r="M1" s="317" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="333"/>
+      <c r="N1" s="317"/>
       <c r="O1" s="35"/>
       <c r="P1" s="35"/>
       <c r="Q1" s="35"/>
@@ -7682,11 +7697,11 @@
       <c r="AD1" s="35"/>
     </row>
     <row r="2" spans="1:30" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A2" s="334" t="s">
+      <c r="A2" s="318" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="334"/>
-      <c r="C2" s="334"/>
+      <c r="B2" s="318"/>
+      <c r="C2" s="318"/>
       <c r="D2" s="228" t="s">
         <v>192</v>
       </c>
@@ -7731,9 +7746,9 @@
       <c r="AD2" s="35"/>
     </row>
     <row r="3" spans="1:30" ht="33" customHeight="1" thickBot="1">
-      <c r="A3" s="335"/>
-      <c r="B3" s="335"/>
-      <c r="C3" s="335"/>
+      <c r="A3" s="319"/>
+      <c r="B3" s="319"/>
+      <c r="C3" s="319"/>
       <c r="D3" s="229"/>
       <c r="E3" s="37" t="s">
         <v>55</v>
@@ -7776,9 +7791,9 @@
       <c r="AD3" s="35"/>
     </row>
     <row r="4" spans="1:30" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A4" s="335"/>
-      <c r="B4" s="335"/>
-      <c r="C4" s="335"/>
+      <c r="A4" s="319"/>
+      <c r="B4" s="319"/>
+      <c r="C4" s="319"/>
       <c r="D4" s="229"/>
       <c r="E4" s="37" t="s">
         <v>58</v>
@@ -7821,16 +7836,16 @@
       <c r="AD4" s="35"/>
     </row>
     <row r="5" spans="1:30" s="49" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A5" s="336" t="s">
+      <c r="A5" s="320" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="336"/>
-      <c r="C5" s="336"/>
-      <c r="D5" s="337"/>
-      <c r="E5" s="338"/>
-      <c r="F5" s="338"/>
-      <c r="G5" s="338"/>
-      <c r="H5" s="338"/>
+      <c r="B5" s="320"/>
+      <c r="C5" s="320"/>
+      <c r="D5" s="321"/>
+      <c r="E5" s="322"/>
+      <c r="F5" s="322"/>
+      <c r="G5" s="322"/>
+      <c r="H5" s="322"/>
       <c r="I5" s="44"/>
       <c r="J5" s="44"/>
       <c r="K5" s="44"/>
@@ -8045,13 +8060,13 @@
       <c r="B10" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="326" t="s">
+      <c r="C10" s="310" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="339" t="s">
+      <c r="D10" s="323" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="340" t="s">
+      <c r="E10" s="324" t="s">
         <v>331</v>
       </c>
       <c r="F10" s="62" t="s">
@@ -8099,9 +8114,9 @@
       <c r="B11" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="327"/>
-      <c r="D11" s="339"/>
-      <c r="E11" s="340"/>
+      <c r="C11" s="311"/>
+      <c r="D11" s="323"/>
+      <c r="E11" s="324"/>
       <c r="F11" s="62" t="s">
         <v>85</v>
       </c>
@@ -8147,9 +8162,9 @@
       <c r="B12" s="59" t="s">
         <v>404</v>
       </c>
-      <c r="C12" s="327"/>
-      <c r="D12" s="339"/>
-      <c r="E12" s="340"/>
+      <c r="C12" s="311"/>
+      <c r="D12" s="323"/>
+      <c r="E12" s="324"/>
       <c r="F12" s="62" t="s">
         <v>87</v>
       </c>
@@ -8195,9 +8210,9 @@
       <c r="B13" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="C13" s="327"/>
-      <c r="D13" s="339"/>
-      <c r="E13" s="340"/>
+      <c r="C13" s="311"/>
+      <c r="D13" s="323"/>
+      <c r="E13" s="324"/>
       <c r="F13" s="62" t="s">
         <v>89</v>
       </c>
@@ -8239,9 +8254,9 @@
     <row r="14" spans="1:30" s="92" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A14" s="69"/>
       <c r="B14" s="233"/>
-      <c r="C14" s="327"/>
+      <c r="C14" s="311"/>
       <c r="D14" s="85"/>
-      <c r="E14" s="340"/>
+      <c r="E14" s="324"/>
       <c r="F14" s="86"/>
       <c r="G14" s="86"/>
       <c r="H14" s="86"/>
@@ -8275,11 +8290,11 @@
       <c r="B15" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="327"/>
-      <c r="D15" s="340" t="s">
+      <c r="C15" s="311"/>
+      <c r="D15" s="324" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="340"/>
+      <c r="E15" s="324"/>
       <c r="F15" s="94" t="s">
         <v>93</v>
       </c>
@@ -8325,9 +8340,9 @@
       <c r="B16" s="59" t="s">
         <v>405</v>
       </c>
-      <c r="C16" s="327"/>
-      <c r="D16" s="340"/>
-      <c r="E16" s="340"/>
+      <c r="C16" s="311"/>
+      <c r="D16" s="324"/>
+      <c r="E16" s="324"/>
       <c r="F16" s="94" t="s">
         <v>339</v>
       </c>
@@ -8373,9 +8388,9 @@
       <c r="B17" s="59" t="s">
         <v>406</v>
       </c>
-      <c r="C17" s="327"/>
-      <c r="D17" s="340"/>
-      <c r="E17" s="340"/>
+      <c r="C17" s="311"/>
+      <c r="D17" s="324"/>
+      <c r="E17" s="324"/>
       <c r="F17" s="102" t="s">
         <v>97</v>
       </c>
@@ -8421,9 +8436,9 @@
       <c r="B18" s="59" t="s">
         <v>407</v>
       </c>
-      <c r="C18" s="327"/>
-      <c r="D18" s="340"/>
-      <c r="E18" s="340"/>
+      <c r="C18" s="311"/>
+      <c r="D18" s="324"/>
+      <c r="E18" s="324"/>
       <c r="F18" s="94" t="s">
         <v>340</v>
       </c>
@@ -8471,9 +8486,9 @@
       <c r="B19" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="C19" s="327"/>
-      <c r="D19" s="340"/>
-      <c r="E19" s="340"/>
+      <c r="C19" s="311"/>
+      <c r="D19" s="324"/>
+      <c r="E19" s="324"/>
       <c r="F19" s="94" t="s">
         <v>341</v>
       </c>
@@ -8521,9 +8536,9 @@
       <c r="B20" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="C20" s="327"/>
-      <c r="D20" s="340"/>
-      <c r="E20" s="340"/>
+      <c r="C20" s="311"/>
+      <c r="D20" s="324"/>
+      <c r="E20" s="324"/>
       <c r="F20" s="94" t="s">
         <v>353</v>
       </c>
@@ -8571,9 +8586,9 @@
       <c r="B21" s="59" t="s">
         <v>408</v>
       </c>
-      <c r="C21" s="327"/>
-      <c r="D21" s="340"/>
-      <c r="E21" s="340"/>
+      <c r="C21" s="311"/>
+      <c r="D21" s="324"/>
+      <c r="E21" s="324"/>
       <c r="F21" s="94" t="s">
         <v>354</v>
       </c>
@@ -8619,9 +8634,9 @@
       <c r="B22" s="59" t="s">
         <v>409</v>
       </c>
-      <c r="C22" s="327"/>
-      <c r="D22" s="340"/>
-      <c r="E22" s="340"/>
+      <c r="C22" s="311"/>
+      <c r="D22" s="324"/>
+      <c r="E22" s="324"/>
       <c r="F22" s="94" t="s">
         <v>352</v>
       </c>
@@ -8667,9 +8682,9 @@
       <c r="B23" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="C23" s="327"/>
-      <c r="D23" s="340"/>
-      <c r="E23" s="340"/>
+      <c r="C23" s="311"/>
+      <c r="D23" s="324"/>
+      <c r="E23" s="324"/>
       <c r="F23" s="94" t="s">
         <v>351</v>
       </c>
@@ -8717,9 +8732,9 @@
       <c r="B24" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="C24" s="327"/>
-      <c r="D24" s="340"/>
-      <c r="E24" s="340"/>
+      <c r="C24" s="311"/>
+      <c r="D24" s="324"/>
+      <c r="E24" s="324"/>
       <c r="F24" s="94" t="s">
         <v>355</v>
       </c>
@@ -8765,9 +8780,9 @@
       <c r="B25" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="C25" s="327"/>
-      <c r="D25" s="340"/>
-      <c r="E25" s="340"/>
+      <c r="C25" s="311"/>
+      <c r="D25" s="324"/>
+      <c r="E25" s="324"/>
       <c r="F25" s="94" t="s">
         <v>104</v>
       </c>
@@ -8813,9 +8828,9 @@
       <c r="B26" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="C26" s="327"/>
-      <c r="D26" s="340"/>
-      <c r="E26" s="340"/>
+      <c r="C26" s="311"/>
+      <c r="D26" s="324"/>
+      <c r="E26" s="324"/>
       <c r="F26" s="102" t="s">
         <v>107</v>
       </c>
@@ -8861,9 +8876,9 @@
       <c r="B27" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="C27" s="327"/>
-      <c r="D27" s="340"/>
-      <c r="E27" s="340"/>
+      <c r="C27" s="311"/>
+      <c r="D27" s="324"/>
+      <c r="E27" s="324"/>
       <c r="F27" s="102" t="s">
         <v>109</v>
       </c>
@@ -8909,9 +8924,9 @@
       <c r="B28" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="C28" s="327"/>
-      <c r="D28" s="340"/>
-      <c r="E28" s="340"/>
+      <c r="C28" s="311"/>
+      <c r="D28" s="324"/>
+      <c r="E28" s="324"/>
       <c r="F28" s="62" t="s">
         <v>110</v>
       </c>
@@ -8957,9 +8972,9 @@
       <c r="B29" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="C29" s="327"/>
-      <c r="D29" s="340"/>
-      <c r="E29" s="340"/>
+      <c r="C29" s="311"/>
+      <c r="D29" s="324"/>
+      <c r="E29" s="324"/>
       <c r="F29" s="62" t="s">
         <v>112</v>
       </c>
@@ -9005,9 +9020,9 @@
       <c r="B30" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="C30" s="327"/>
-      <c r="D30" s="340"/>
-      <c r="E30" s="340"/>
+      <c r="C30" s="311"/>
+      <c r="D30" s="324"/>
+      <c r="E30" s="324"/>
       <c r="F30" s="62" t="s">
         <v>114</v>
       </c>
@@ -9053,9 +9068,9 @@
       <c r="B31" s="59" t="s">
         <v>410</v>
       </c>
-      <c r="C31" s="327"/>
-      <c r="D31" s="340"/>
-      <c r="E31" s="340"/>
+      <c r="C31" s="311"/>
+      <c r="D31" s="324"/>
+      <c r="E31" s="324"/>
       <c r="F31" s="62" t="s">
         <v>116</v>
       </c>
@@ -9101,9 +9116,9 @@
       <c r="B32" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="C32" s="327"/>
-      <c r="D32" s="340"/>
-      <c r="E32" s="340"/>
+      <c r="C32" s="311"/>
+      <c r="D32" s="324"/>
+      <c r="E32" s="324"/>
       <c r="F32" s="62" t="s">
         <v>117</v>
       </c>
@@ -9149,9 +9164,9 @@
       <c r="B33" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="C33" s="327"/>
-      <c r="D33" s="340"/>
-      <c r="E33" s="340"/>
+      <c r="C33" s="311"/>
+      <c r="D33" s="324"/>
+      <c r="E33" s="324"/>
       <c r="F33" s="62" t="s">
         <v>119</v>
       </c>
@@ -9197,9 +9212,9 @@
       <c r="B34" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="C34" s="327"/>
-      <c r="D34" s="340"/>
-      <c r="E34" s="340"/>
+      <c r="C34" s="311"/>
+      <c r="D34" s="324"/>
+      <c r="E34" s="324"/>
       <c r="F34" s="62" t="s">
         <v>120</v>
       </c>
@@ -9245,9 +9260,9 @@
       <c r="B35" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="C35" s="327"/>
-      <c r="D35" s="340"/>
-      <c r="E35" s="340"/>
+      <c r="C35" s="311"/>
+      <c r="D35" s="324"/>
+      <c r="E35" s="324"/>
       <c r="F35" s="62" t="s">
         <v>121</v>
       </c>
@@ -9295,9 +9310,9 @@
       <c r="B36" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="C36" s="327"/>
-      <c r="D36" s="340"/>
-      <c r="E36" s="340"/>
+      <c r="C36" s="311"/>
+      <c r="D36" s="324"/>
+      <c r="E36" s="324"/>
       <c r="F36" s="95" t="s">
         <v>125</v>
       </c>
@@ -9343,9 +9358,9 @@
       <c r="B37" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="C37" s="327"/>
-      <c r="D37" s="340"/>
-      <c r="E37" s="340"/>
+      <c r="C37" s="311"/>
+      <c r="D37" s="324"/>
+      <c r="E37" s="324"/>
       <c r="F37" s="95" t="s">
         <v>126</v>
       </c>
@@ -9387,9 +9402,9 @@
     <row r="38" spans="1:30" s="107" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A38" s="103"/>
       <c r="B38" s="233"/>
-      <c r="C38" s="327"/>
+      <c r="C38" s="311"/>
       <c r="D38" s="104"/>
-      <c r="E38" s="340"/>
+      <c r="E38" s="324"/>
       <c r="F38" s="105"/>
       <c r="G38" s="86"/>
       <c r="H38" s="86"/>
@@ -9423,11 +9438,11 @@
       <c r="B39" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="C39" s="327"/>
-      <c r="D39" s="340" t="s">
+      <c r="C39" s="311"/>
+      <c r="D39" s="324" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="340"/>
+      <c r="E39" s="324"/>
       <c r="F39" s="102" t="s">
         <v>128</v>
       </c>
@@ -9473,9 +9488,9 @@
       <c r="B40" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="C40" s="327"/>
-      <c r="D40" s="340"/>
-      <c r="E40" s="340"/>
+      <c r="C40" s="311"/>
+      <c r="D40" s="324"/>
+      <c r="E40" s="324"/>
       <c r="F40" s="108" t="s">
         <v>131</v>
       </c>
@@ -9517,7 +9532,7 @@
     <row r="41" spans="1:30" s="265" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A41" s="257"/>
       <c r="B41" s="233"/>
-      <c r="C41" s="327"/>
+      <c r="C41" s="311"/>
       <c r="D41" s="270"/>
       <c r="E41" s="271"/>
       <c r="F41" s="272"/>
@@ -9553,11 +9568,11 @@
       <c r="B42" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="C42" s="327"/>
-      <c r="D42" s="329" t="s">
+      <c r="C42" s="311"/>
+      <c r="D42" s="313" t="s">
         <v>134</v>
       </c>
-      <c r="E42" s="329" t="s">
+      <c r="E42" s="313" t="s">
         <v>269</v>
       </c>
       <c r="F42" s="95" t="s">
@@ -9605,9 +9620,9 @@
       <c r="B43" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="C43" s="327"/>
-      <c r="D43" s="330"/>
-      <c r="E43" s="330"/>
+      <c r="C43" s="311"/>
+      <c r="D43" s="314"/>
+      <c r="E43" s="314"/>
       <c r="F43" s="102" t="s">
         <v>137</v>
       </c>
@@ -9653,9 +9668,9 @@
       <c r="B44" s="59" t="s">
         <v>411</v>
       </c>
-      <c r="C44" s="327"/>
-      <c r="D44" s="330"/>
-      <c r="E44" s="330"/>
+      <c r="C44" s="311"/>
+      <c r="D44" s="314"/>
+      <c r="E44" s="314"/>
       <c r="F44" s="102" t="s">
         <v>138</v>
       </c>
@@ -9701,9 +9716,9 @@
       <c r="B45" s="59" t="s">
         <v>412</v>
       </c>
-      <c r="C45" s="327"/>
-      <c r="D45" s="330"/>
-      <c r="E45" s="330"/>
+      <c r="C45" s="311"/>
+      <c r="D45" s="314"/>
+      <c r="E45" s="314"/>
       <c r="F45" s="102" t="s">
         <v>139</v>
       </c>
@@ -9749,9 +9764,9 @@
       <c r="B46" s="59" t="s">
         <v>413</v>
       </c>
-      <c r="C46" s="327"/>
-      <c r="D46" s="330"/>
-      <c r="E46" s="330"/>
+      <c r="C46" s="311"/>
+      <c r="D46" s="314"/>
+      <c r="E46" s="314"/>
       <c r="F46" s="102" t="s">
         <v>140</v>
       </c>
@@ -9797,9 +9812,9 @@
       <c r="B47" s="59" t="s">
         <v>414</v>
       </c>
-      <c r="C47" s="327"/>
-      <c r="D47" s="330"/>
-      <c r="E47" s="330"/>
+      <c r="C47" s="311"/>
+      <c r="D47" s="314"/>
+      <c r="E47" s="314"/>
       <c r="F47" s="79" t="s">
         <v>142</v>
       </c>
@@ -9845,9 +9860,9 @@
       <c r="B48" s="59" t="s">
         <v>415</v>
       </c>
-      <c r="C48" s="327"/>
-      <c r="D48" s="330"/>
-      <c r="E48" s="330"/>
+      <c r="C48" s="311"/>
+      <c r="D48" s="314"/>
+      <c r="E48" s="314"/>
       <c r="F48" s="102" t="s">
         <v>145</v>
       </c>
@@ -9893,9 +9908,9 @@
       <c r="B49" s="59" t="s">
         <v>416</v>
       </c>
-      <c r="C49" s="327"/>
-      <c r="D49" s="330"/>
-      <c r="E49" s="330"/>
+      <c r="C49" s="311"/>
+      <c r="D49" s="314"/>
+      <c r="E49" s="314"/>
       <c r="F49" s="102" t="s">
         <v>147</v>
       </c>
@@ -9941,9 +9956,9 @@
       <c r="B50" s="59" t="s">
         <v>417</v>
       </c>
-      <c r="C50" s="327"/>
-      <c r="D50" s="330"/>
-      <c r="E50" s="330"/>
+      <c r="C50" s="311"/>
+      <c r="D50" s="314"/>
+      <c r="E50" s="314"/>
       <c r="F50" s="102" t="s">
         <v>149</v>
       </c>
@@ -9989,9 +10004,9 @@
       <c r="B51" s="59" t="s">
         <v>418</v>
       </c>
-      <c r="C51" s="327"/>
-      <c r="D51" s="330"/>
-      <c r="E51" s="330"/>
+      <c r="C51" s="311"/>
+      <c r="D51" s="314"/>
+      <c r="E51" s="314"/>
       <c r="F51" s="102" t="s">
         <v>151</v>
       </c>
@@ -10039,9 +10054,9 @@
       <c r="B52" s="59" t="s">
         <v>419</v>
       </c>
-      <c r="C52" s="327"/>
-      <c r="D52" s="330"/>
-      <c r="E52" s="330"/>
+      <c r="C52" s="311"/>
+      <c r="D52" s="314"/>
+      <c r="E52" s="314"/>
       <c r="F52" s="94" t="s">
         <v>153</v>
       </c>
@@ -10087,9 +10102,9 @@
       <c r="B53" s="59" t="s">
         <v>420</v>
       </c>
-      <c r="C53" s="327"/>
-      <c r="D53" s="330"/>
-      <c r="E53" s="330"/>
+      <c r="C53" s="311"/>
+      <c r="D53" s="314"/>
+      <c r="E53" s="314"/>
       <c r="F53" s="102" t="s">
         <v>155</v>
       </c>
@@ -10135,9 +10150,9 @@
       <c r="B54" s="59" t="s">
         <v>223</v>
       </c>
-      <c r="C54" s="327"/>
-      <c r="D54" s="330"/>
-      <c r="E54" s="330"/>
+      <c r="C54" s="311"/>
+      <c r="D54" s="314"/>
+      <c r="E54" s="314"/>
       <c r="F54" s="253" t="s">
         <v>378</v>
       </c>
@@ -10183,9 +10198,9 @@
       <c r="B55" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="C55" s="327"/>
-      <c r="D55" s="330"/>
-      <c r="E55" s="330"/>
+      <c r="C55" s="311"/>
+      <c r="D55" s="314"/>
+      <c r="E55" s="314"/>
       <c r="F55" s="253" t="s">
         <v>379</v>
       </c>
@@ -10231,9 +10246,9 @@
       <c r="B56" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="C56" s="327"/>
-      <c r="D56" s="330"/>
-      <c r="E56" s="330"/>
+      <c r="C56" s="311"/>
+      <c r="D56" s="314"/>
+      <c r="E56" s="314"/>
       <c r="F56" s="253" t="s">
         <v>426</v>
       </c>
@@ -10279,9 +10294,9 @@
       <c r="B57" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="C57" s="327"/>
-      <c r="D57" s="331"/>
-      <c r="E57" s="331"/>
+      <c r="C57" s="311"/>
+      <c r="D57" s="315"/>
+      <c r="E57" s="315"/>
       <c r="F57" s="253" t="s">
         <v>429</v>
       </c>
@@ -10323,7 +10338,7 @@
     <row r="58" spans="1:30" s="107" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A58" s="103"/>
       <c r="B58" s="233"/>
-      <c r="C58" s="327"/>
+      <c r="C58" s="311"/>
       <c r="D58" s="254"/>
       <c r="E58" s="255"/>
       <c r="F58" s="113"/>
@@ -10357,7 +10372,7 @@
         <v>47</v>
       </c>
       <c r="B59" s="59"/>
-      <c r="C59" s="328"/>
+      <c r="C59" s="312"/>
       <c r="D59" s="266"/>
       <c r="E59" s="256" t="s">
         <v>157</v>
@@ -10430,10 +10445,10 @@
         <v>227</v>
       </c>
       <c r="C61" s="268"/>
-      <c r="D61" s="308" t="s">
+      <c r="D61" s="340" t="s">
         <v>81</v>
       </c>
-      <c r="E61" s="326" t="s">
+      <c r="E61" s="310" t="s">
         <v>291</v>
       </c>
       <c r="F61" s="62" t="s">
@@ -10482,8 +10497,8 @@
         <v>228</v>
       </c>
       <c r="C62" s="268"/>
-      <c r="D62" s="309"/>
-      <c r="E62" s="327"/>
+      <c r="D62" s="341"/>
+      <c r="E62" s="311"/>
       <c r="F62" s="62" t="s">
         <v>85</v>
       </c>
@@ -10530,8 +10545,8 @@
         <v>229</v>
       </c>
       <c r="C63" s="268"/>
-      <c r="D63" s="309"/>
-      <c r="E63" s="327"/>
+      <c r="D63" s="341"/>
+      <c r="E63" s="311"/>
       <c r="F63" s="62" t="s">
         <v>89</v>
       </c>
@@ -10578,8 +10593,8 @@
         <v>445</v>
       </c>
       <c r="C64" s="268"/>
-      <c r="D64" s="310"/>
-      <c r="E64" s="327"/>
+      <c r="D64" s="342"/>
+      <c r="E64" s="311"/>
       <c r="F64" s="62"/>
       <c r="G64" s="62"/>
       <c r="H64" s="62"/>
@@ -10611,7 +10626,7 @@
       <c r="B65" s="233"/>
       <c r="C65" s="269"/>
       <c r="D65" s="275"/>
-      <c r="E65" s="327"/>
+      <c r="E65" s="311"/>
       <c r="F65" s="276"/>
       <c r="G65" s="277"/>
       <c r="H65" s="278"/>
@@ -10646,11 +10661,11 @@
         <v>230</v>
       </c>
       <c r="C66" s="268"/>
-      <c r="D66" s="367" t="s">
+      <c r="D66" s="291" t="s">
         <v>134</v>
       </c>
-      <c r="E66" s="327"/>
-      <c r="F66" s="368" t="s">
+      <c r="E66" s="311"/>
+      <c r="F66" s="292" t="s">
         <v>446</v>
       </c>
       <c r="G66" s="95"/>
@@ -10687,8 +10702,8 @@
       </c>
       <c r="C67" s="268"/>
       <c r="D67" s="115"/>
-      <c r="E67" s="327"/>
-      <c r="F67" s="368" t="s">
+      <c r="E67" s="311"/>
+      <c r="F67" s="292" t="s">
         <v>447</v>
       </c>
       <c r="G67" s="77"/>
@@ -10725,8 +10740,8 @@
       </c>
       <c r="C68" s="268"/>
       <c r="D68" s="115"/>
-      <c r="E68" s="327"/>
-      <c r="F68" s="368" t="s">
+      <c r="E68" s="311"/>
+      <c r="F68" s="292" t="s">
         <v>448</v>
       </c>
       <c r="G68" s="95"/>
@@ -10763,8 +10778,8 @@
       </c>
       <c r="C69" s="268"/>
       <c r="D69" s="115"/>
-      <c r="E69" s="327"/>
-      <c r="F69" s="368" t="s">
+      <c r="E69" s="311"/>
+      <c r="F69" s="292" t="s">
         <v>449</v>
       </c>
       <c r="G69" s="95"/>
@@ -10801,8 +10816,8 @@
       </c>
       <c r="C70" s="268"/>
       <c r="D70" s="115"/>
-      <c r="E70" s="327"/>
-      <c r="F70" s="368" t="s">
+      <c r="E70" s="311"/>
+      <c r="F70" s="292" t="s">
         <v>450</v>
       </c>
       <c r="G70" s="95"/>
@@ -10839,8 +10854,8 @@
       </c>
       <c r="C71" s="268"/>
       <c r="D71" s="115"/>
-      <c r="E71" s="327"/>
-      <c r="F71" s="368" t="s">
+      <c r="E71" s="311"/>
+      <c r="F71" s="292" t="s">
         <v>451</v>
       </c>
       <c r="G71" s="77"/>
@@ -10877,8 +10892,8 @@
       </c>
       <c r="C72" s="268"/>
       <c r="D72" s="115"/>
-      <c r="E72" s="327"/>
-      <c r="F72" s="368" t="s">
+      <c r="E72" s="311"/>
+      <c r="F72" s="292" t="s">
         <v>452</v>
       </c>
       <c r="G72" s="95"/>
@@ -10915,8 +10930,8 @@
       </c>
       <c r="C73" s="268"/>
       <c r="D73" s="115"/>
-      <c r="E73" s="327"/>
-      <c r="F73" s="368" t="s">
+      <c r="E73" s="311"/>
+      <c r="F73" s="292" t="s">
         <v>453</v>
       </c>
       <c r="G73" s="62"/>
@@ -10953,8 +10968,8 @@
       </c>
       <c r="C74" s="268"/>
       <c r="D74" s="115"/>
-      <c r="E74" s="327"/>
-      <c r="F74" s="368" t="s">
+      <c r="E74" s="311"/>
+      <c r="F74" s="292" t="s">
         <v>454</v>
       </c>
       <c r="G74" s="62"/>
@@ -10991,8 +11006,8 @@
       </c>
       <c r="C75" s="268"/>
       <c r="D75" s="115"/>
-      <c r="E75" s="327"/>
-      <c r="F75" s="368" t="s">
+      <c r="E75" s="311"/>
+      <c r="F75" s="292" t="s">
         <v>455</v>
       </c>
       <c r="G75" s="62"/>
@@ -11029,8 +11044,8 @@
       </c>
       <c r="C76" s="268"/>
       <c r="D76" s="115"/>
-      <c r="E76" s="327"/>
-      <c r="F76" s="368" t="s">
+      <c r="E76" s="311"/>
+      <c r="F76" s="292" t="s">
         <v>456</v>
       </c>
       <c r="G76" s="101"/>
@@ -11067,8 +11082,8 @@
       </c>
       <c r="C77" s="268"/>
       <c r="D77" s="115"/>
-      <c r="E77" s="327"/>
-      <c r="F77" s="368" t="s">
+      <c r="E77" s="311"/>
+      <c r="F77" s="292" t="s">
         <v>457</v>
       </c>
       <c r="G77" s="95"/>
@@ -11105,8 +11120,8 @@
       </c>
       <c r="C78" s="268"/>
       <c r="D78" s="115"/>
-      <c r="E78" s="327"/>
-      <c r="F78" s="368" t="s">
+      <c r="E78" s="311"/>
+      <c r="F78" s="292" t="s">
         <v>458</v>
       </c>
       <c r="G78" s="95"/>
@@ -11143,8 +11158,8 @@
       </c>
       <c r="C79" s="268"/>
       <c r="D79" s="115"/>
-      <c r="E79" s="327"/>
-      <c r="F79" s="368" t="s">
+      <c r="E79" s="311"/>
+      <c r="F79" s="292" t="s">
         <v>459</v>
       </c>
       <c r="G79" s="95"/>
@@ -11181,8 +11196,8 @@
       </c>
       <c r="C80" s="268"/>
       <c r="D80" s="115"/>
-      <c r="E80" s="327"/>
-      <c r="F80" s="368"/>
+      <c r="E80" s="311"/>
+      <c r="F80" s="292"/>
       <c r="G80" s="95"/>
       <c r="H80" s="95"/>
       <c r="I80" s="95"/>
@@ -11217,8 +11232,8 @@
       </c>
       <c r="C81" s="268"/>
       <c r="D81" s="115"/>
-      <c r="E81" s="327"/>
-      <c r="F81" s="368"/>
+      <c r="E81" s="311"/>
+      <c r="F81" s="292"/>
       <c r="G81" s="95"/>
       <c r="H81" s="95"/>
       <c r="I81" s="95"/>
@@ -11253,8 +11268,8 @@
       </c>
       <c r="C82" s="268"/>
       <c r="D82" s="115"/>
-      <c r="E82" s="327"/>
-      <c r="F82" s="368"/>
+      <c r="E82" s="311"/>
+      <c r="F82" s="292"/>
       <c r="G82" s="62"/>
       <c r="H82" s="95"/>
       <c r="I82" s="95"/>
@@ -11289,8 +11304,8 @@
       </c>
       <c r="C83" s="268"/>
       <c r="D83" s="115"/>
-      <c r="E83" s="327"/>
-      <c r="F83" s="368"/>
+      <c r="E83" s="311"/>
+      <c r="F83" s="292"/>
       <c r="G83" s="95"/>
       <c r="H83" s="95"/>
       <c r="I83" s="95"/>
@@ -11325,8 +11340,8 @@
       </c>
       <c r="C84" s="268"/>
       <c r="D84" s="115"/>
-      <c r="E84" s="327"/>
-      <c r="F84" s="368"/>
+      <c r="E84" s="311"/>
+      <c r="F84" s="292"/>
       <c r="G84" s="95"/>
       <c r="H84" s="95"/>
       <c r="I84" s="95"/>
@@ -11361,8 +11376,8 @@
       </c>
       <c r="C85" s="268"/>
       <c r="D85" s="115"/>
-      <c r="E85" s="327"/>
-      <c r="F85" s="368"/>
+      <c r="E85" s="311"/>
+      <c r="F85" s="292"/>
       <c r="G85" s="95"/>
       <c r="H85" s="95"/>
       <c r="I85" s="95"/>
@@ -11397,8 +11412,8 @@
       </c>
       <c r="C86" s="268"/>
       <c r="D86" s="115"/>
-      <c r="E86" s="327"/>
-      <c r="F86" s="368"/>
+      <c r="E86" s="311"/>
+      <c r="F86" s="292"/>
       <c r="G86" s="95"/>
       <c r="H86" s="95"/>
       <c r="I86" s="95"/>
@@ -11433,8 +11448,8 @@
       </c>
       <c r="C87" s="268"/>
       <c r="D87" s="115"/>
-      <c r="E87" s="327"/>
-      <c r="F87" s="368"/>
+      <c r="E87" s="311"/>
+      <c r="F87" s="292"/>
       <c r="G87" s="95"/>
       <c r="H87" s="95"/>
       <c r="I87" s="95"/>
@@ -11469,8 +11484,8 @@
       </c>
       <c r="C88" s="268"/>
       <c r="D88" s="115"/>
-      <c r="E88" s="327"/>
-      <c r="F88" s="368"/>
+      <c r="E88" s="311"/>
+      <c r="F88" s="292"/>
       <c r="G88" s="62"/>
       <c r="H88" s="95"/>
       <c r="I88" s="95"/>
@@ -11505,8 +11520,8 @@
       </c>
       <c r="C89" s="268"/>
       <c r="D89" s="115"/>
-      <c r="E89" s="327"/>
-      <c r="F89" s="368"/>
+      <c r="E89" s="311"/>
+      <c r="F89" s="292"/>
       <c r="G89" s="101"/>
       <c r="H89" s="101"/>
       <c r="I89" s="101"/>
@@ -11541,8 +11556,8 @@
       </c>
       <c r="C90" s="268"/>
       <c r="D90" s="115"/>
-      <c r="E90" s="327"/>
-      <c r="F90" s="368"/>
+      <c r="E90" s="311"/>
+      <c r="F90" s="292"/>
       <c r="G90" s="95"/>
       <c r="H90" s="95"/>
       <c r="I90" s="95"/>
@@ -11577,8 +11592,8 @@
       </c>
       <c r="C91" s="268"/>
       <c r="D91" s="115"/>
-      <c r="E91" s="328"/>
-      <c r="F91" s="368"/>
+      <c r="E91" s="312"/>
+      <c r="F91" s="292"/>
       <c r="G91" s="95"/>
       <c r="H91" s="95"/>
       <c r="I91" s="95"/>
@@ -11613,8 +11628,8 @@
       </c>
       <c r="C92" s="268"/>
       <c r="D92" s="115"/>
-      <c r="E92" s="324"/>
-      <c r="F92" s="368"/>
+      <c r="E92" s="325"/>
+      <c r="F92" s="292"/>
       <c r="G92" s="95"/>
       <c r="H92" s="95"/>
       <c r="I92" s="95"/>
@@ -11649,8 +11664,8 @@
       </c>
       <c r="C93" s="268"/>
       <c r="D93" s="115"/>
-      <c r="E93" s="324"/>
-      <c r="F93" s="368"/>
+      <c r="E93" s="325"/>
+      <c r="F93" s="292"/>
       <c r="G93" s="95"/>
       <c r="H93" s="95"/>
       <c r="I93" s="95"/>
@@ -11685,8 +11700,8 @@
       </c>
       <c r="C94" s="268"/>
       <c r="D94" s="115"/>
-      <c r="E94" s="324"/>
-      <c r="F94" s="368"/>
+      <c r="E94" s="325"/>
+      <c r="F94" s="292"/>
       <c r="G94" s="95"/>
       <c r="H94" s="95"/>
       <c r="I94" s="95"/>
@@ -11721,8 +11736,8 @@
       </c>
       <c r="C95" s="268"/>
       <c r="D95" s="115"/>
-      <c r="E95" s="324"/>
-      <c r="F95" s="368"/>
+      <c r="E95" s="325"/>
+      <c r="F95" s="292"/>
       <c r="G95" s="62"/>
       <c r="H95" s="95"/>
       <c r="I95" s="95"/>
@@ -11757,8 +11772,8 @@
       </c>
       <c r="C96" s="268"/>
       <c r="D96" s="117"/>
-      <c r="E96" s="324"/>
-      <c r="F96" s="368"/>
+      <c r="E96" s="325"/>
+      <c r="F96" s="292"/>
       <c r="G96" s="118"/>
       <c r="H96" s="118"/>
       <c r="I96" s="118"/>
@@ -11793,8 +11808,8 @@
       </c>
       <c r="C97" s="268"/>
       <c r="D97" s="117"/>
-      <c r="E97" s="324"/>
-      <c r="F97" s="368"/>
+      <c r="E97" s="325"/>
+      <c r="F97" s="292"/>
       <c r="G97" s="123"/>
       <c r="H97" s="124"/>
       <c r="I97" s="124"/>
@@ -11829,8 +11844,8 @@
       </c>
       <c r="C98" s="268"/>
       <c r="D98" s="117"/>
-      <c r="E98" s="324"/>
-      <c r="F98" s="368"/>
+      <c r="E98" s="325"/>
+      <c r="F98" s="292"/>
       <c r="G98" s="129"/>
       <c r="H98" s="129"/>
       <c r="I98" s="129"/>
@@ -11865,8 +11880,8 @@
       </c>
       <c r="C99" s="268"/>
       <c r="D99" s="117"/>
-      <c r="E99" s="324"/>
-      <c r="F99" s="368"/>
+      <c r="E99" s="325"/>
+      <c r="F99" s="292"/>
       <c r="G99" s="129"/>
       <c r="H99" s="129"/>
       <c r="I99" s="129"/>
@@ -11901,8 +11916,8 @@
       </c>
       <c r="C100" s="268"/>
       <c r="D100" s="117"/>
-      <c r="E100" s="324"/>
-      <c r="F100" s="368"/>
+      <c r="E100" s="325"/>
+      <c r="F100" s="292"/>
       <c r="G100" s="129"/>
       <c r="H100" s="129"/>
       <c r="I100" s="129"/>
@@ -11937,8 +11952,8 @@
       </c>
       <c r="C101" s="268"/>
       <c r="D101" s="117"/>
-      <c r="E101" s="324"/>
-      <c r="F101" s="368"/>
+      <c r="E101" s="325"/>
+      <c r="F101" s="292"/>
       <c r="G101" s="123"/>
       <c r="H101" s="124"/>
       <c r="I101" s="124"/>
@@ -11974,7 +11989,7 @@
       <c r="C102" s="268"/>
       <c r="D102" s="117"/>
       <c r="E102" s="132"/>
-      <c r="F102" s="368"/>
+      <c r="F102" s="292"/>
       <c r="G102" s="129"/>
       <c r="H102" s="129"/>
       <c r="I102" s="129"/>
@@ -12009,8 +12024,8 @@
       </c>
       <c r="C103" s="268"/>
       <c r="D103" s="117"/>
-      <c r="E103" s="325"/>
-      <c r="F103" s="368"/>
+      <c r="E103" s="326"/>
+      <c r="F103" s="292"/>
       <c r="G103" s="123"/>
       <c r="H103" s="124"/>
       <c r="I103" s="124"/>
@@ -12045,8 +12060,8 @@
       </c>
       <c r="C104" s="268"/>
       <c r="D104" s="117"/>
-      <c r="E104" s="325"/>
-      <c r="F104" s="368"/>
+      <c r="E104" s="326"/>
+      <c r="F104" s="292"/>
       <c r="G104" s="129"/>
       <c r="H104" s="129"/>
       <c r="I104" s="129"/>
@@ -12082,7 +12097,7 @@
       <c r="C105" s="268"/>
       <c r="D105" s="117"/>
       <c r="E105" s="6"/>
-      <c r="F105" s="368"/>
+      <c r="F105" s="292"/>
       <c r="G105" s="123"/>
       <c r="H105" s="124"/>
       <c r="I105" s="124"/>
@@ -12117,8 +12132,8 @@
       </c>
       <c r="C106" s="268"/>
       <c r="D106" s="117"/>
-      <c r="E106" s="320"/>
-      <c r="F106" s="368"/>
+      <c r="E106" s="327"/>
+      <c r="F106" s="292"/>
       <c r="G106" s="129"/>
       <c r="H106" s="129"/>
       <c r="I106" s="129"/>
@@ -12153,8 +12168,8 @@
       </c>
       <c r="C107" s="268"/>
       <c r="D107" s="117"/>
-      <c r="E107" s="320"/>
-      <c r="F107" s="368"/>
+      <c r="E107" s="327"/>
+      <c r="F107" s="292"/>
       <c r="G107" s="129"/>
       <c r="H107" s="129"/>
       <c r="I107" s="129"/>
@@ -12189,8 +12204,8 @@
       </c>
       <c r="C108" s="268"/>
       <c r="D108" s="117"/>
-      <c r="E108" s="320"/>
-      <c r="F108" s="368"/>
+      <c r="E108" s="327"/>
+      <c r="F108" s="292"/>
       <c r="G108" s="129"/>
       <c r="H108" s="129"/>
       <c r="I108" s="129"/>
@@ -12221,8 +12236,8 @@
       <c r="B109" s="230"/>
       <c r="C109" s="268"/>
       <c r="D109" s="117"/>
-      <c r="E109" s="320"/>
-      <c r="F109" s="368"/>
+      <c r="E109" s="327"/>
+      <c r="F109" s="292"/>
       <c r="G109" s="123"/>
       <c r="H109" s="124"/>
       <c r="I109" s="124"/>
@@ -12253,8 +12268,8 @@
       <c r="B110" s="230"/>
       <c r="C110" s="268"/>
       <c r="D110" s="117"/>
-      <c r="E110" s="320"/>
-      <c r="F110" s="368"/>
+      <c r="E110" s="327"/>
+      <c r="F110" s="292"/>
       <c r="G110" s="135"/>
       <c r="H110" s="131"/>
       <c r="I110" s="131"/>
@@ -12285,8 +12300,8 @@
       <c r="B111" s="230"/>
       <c r="C111" s="268"/>
       <c r="D111" s="117"/>
-      <c r="E111" s="320"/>
-      <c r="F111" s="368"/>
+      <c r="E111" s="327"/>
+      <c r="F111" s="292"/>
       <c r="G111" s="136"/>
       <c r="H111" s="124"/>
       <c r="I111" s="124"/>
@@ -12317,8 +12332,8 @@
       <c r="B112" s="230"/>
       <c r="C112" s="268"/>
       <c r="D112" s="117"/>
-      <c r="E112" s="320"/>
-      <c r="F112" s="368"/>
+      <c r="E112" s="327"/>
+      <c r="F112" s="292"/>
       <c r="G112" s="137"/>
       <c r="H112" s="131"/>
       <c r="I112" s="131"/>
@@ -12350,7 +12365,7 @@
       <c r="C113" s="268"/>
       <c r="D113" s="117"/>
       <c r="E113" s="138"/>
-      <c r="F113" s="368"/>
+      <c r="F113" s="292"/>
       <c r="G113" s="123"/>
       <c r="H113" s="124"/>
       <c r="I113" s="124"/>
@@ -12381,8 +12396,8 @@
       <c r="B114" s="230"/>
       <c r="C114" s="268"/>
       <c r="D114" s="117"/>
-      <c r="E114" s="321"/>
-      <c r="F114" s="368"/>
+      <c r="E114" s="328"/>
+      <c r="F114" s="292"/>
       <c r="G114" s="139"/>
       <c r="H114" s="131"/>
       <c r="I114" s="131"/>
@@ -12413,8 +12428,8 @@
       <c r="B115" s="230"/>
       <c r="C115" s="268"/>
       <c r="D115" s="117"/>
-      <c r="E115" s="321"/>
-      <c r="F115" s="368"/>
+      <c r="E115" s="328"/>
+      <c r="F115" s="292"/>
       <c r="G115" s="139"/>
       <c r="H115" s="131"/>
       <c r="I115" s="131"/>
@@ -12445,8 +12460,8 @@
       <c r="B116" s="230"/>
       <c r="C116" s="268"/>
       <c r="D116" s="117"/>
-      <c r="E116" s="321"/>
-      <c r="F116" s="368"/>
+      <c r="E116" s="328"/>
+      <c r="F116" s="292"/>
       <c r="G116" s="133"/>
       <c r="H116" s="133"/>
       <c r="I116" s="133"/>
@@ -12477,8 +12492,8 @@
       <c r="B117" s="230"/>
       <c r="C117" s="268"/>
       <c r="D117" s="117"/>
-      <c r="E117" s="321"/>
-      <c r="F117" s="368"/>
+      <c r="E117" s="328"/>
+      <c r="F117" s="292"/>
       <c r="G117" s="133"/>
       <c r="H117" s="133"/>
       <c r="I117" s="133"/>
@@ -12509,8 +12524,8 @@
       <c r="B118" s="230"/>
       <c r="C118" s="268"/>
       <c r="D118" s="117"/>
-      <c r="E118" s="321"/>
-      <c r="F118" s="368"/>
+      <c r="E118" s="328"/>
+      <c r="F118" s="292"/>
       <c r="G118" s="133"/>
       <c r="H118" s="133"/>
       <c r="I118" s="133"/>
@@ -12541,8 +12556,8 @@
       <c r="B119" s="230"/>
       <c r="C119" s="268"/>
       <c r="D119" s="117"/>
-      <c r="E119" s="321"/>
-      <c r="F119" s="368"/>
+      <c r="E119" s="328"/>
+      <c r="F119" s="292"/>
       <c r="G119" s="133"/>
       <c r="H119" s="133"/>
       <c r="I119" s="133"/>
@@ -12573,8 +12588,8 @@
       <c r="B120" s="230"/>
       <c r="C120" s="268"/>
       <c r="D120" s="117"/>
-      <c r="E120" s="321"/>
-      <c r="F120" s="368"/>
+      <c r="E120" s="328"/>
+      <c r="F120" s="292"/>
       <c r="G120" s="133"/>
       <c r="H120" s="133"/>
       <c r="I120" s="133"/>
@@ -12605,8 +12620,8 @@
       <c r="B121" s="230"/>
       <c r="C121" s="268"/>
       <c r="D121" s="117"/>
-      <c r="E121" s="321"/>
-      <c r="F121" s="368"/>
+      <c r="E121" s="328"/>
+      <c r="F121" s="292"/>
       <c r="G121" s="133"/>
       <c r="H121" s="133"/>
       <c r="I121" s="133"/>
@@ -12637,8 +12652,8 @@
       <c r="B122" s="230"/>
       <c r="C122" s="268"/>
       <c r="D122" s="117"/>
-      <c r="E122" s="321"/>
-      <c r="F122" s="368"/>
+      <c r="E122" s="328"/>
+      <c r="F122" s="292"/>
       <c r="G122" s="133"/>
       <c r="H122" s="133"/>
       <c r="I122" s="133"/>
@@ -12670,7 +12685,7 @@
       <c r="C123" s="268"/>
       <c r="D123" s="140"/>
       <c r="E123" s="141"/>
-      <c r="F123" s="368"/>
+      <c r="F123" s="292"/>
       <c r="G123" s="133"/>
       <c r="H123" s="133"/>
       <c r="I123" s="133"/>
@@ -12702,7 +12717,7 @@
       <c r="C124" s="268"/>
       <c r="D124" s="142"/>
       <c r="E124" s="141"/>
-      <c r="F124" s="368"/>
+      <c r="F124" s="292"/>
       <c r="G124" s="133"/>
       <c r="H124" s="133"/>
       <c r="I124" s="133"/>
@@ -12734,7 +12749,7 @@
       <c r="C125" s="268"/>
       <c r="D125" s="142"/>
       <c r="E125" s="143"/>
-      <c r="F125" s="368"/>
+      <c r="F125" s="292"/>
       <c r="G125" s="133"/>
       <c r="H125" s="133"/>
       <c r="I125" s="133"/>
@@ -12765,8 +12780,8 @@
       <c r="B126" s="230"/>
       <c r="C126" s="268"/>
       <c r="D126" s="142"/>
-      <c r="E126" s="322"/>
-      <c r="F126" s="368"/>
+      <c r="E126" s="329"/>
+      <c r="F126" s="292"/>
       <c r="G126" s="133"/>
       <c r="H126" s="133"/>
       <c r="I126" s="133"/>
@@ -12797,8 +12812,8 @@
       <c r="B127" s="230"/>
       <c r="C127" s="268"/>
       <c r="D127" s="142"/>
-      <c r="E127" s="322"/>
-      <c r="F127" s="368"/>
+      <c r="E127" s="329"/>
+      <c r="F127" s="292"/>
       <c r="G127" s="133"/>
       <c r="H127" s="133"/>
       <c r="I127" s="133"/>
@@ -12830,7 +12845,7 @@
       <c r="C128" s="268"/>
       <c r="D128" s="142"/>
       <c r="E128" s="144"/>
-      <c r="F128" s="368"/>
+      <c r="F128" s="292"/>
       <c r="G128" s="133"/>
       <c r="H128" s="133"/>
       <c r="I128" s="133"/>
@@ -12862,7 +12877,7 @@
       <c r="C129" s="268"/>
       <c r="D129" s="142"/>
       <c r="E129" s="145"/>
-      <c r="F129" s="368"/>
+      <c r="F129" s="292"/>
       <c r="G129" s="133"/>
       <c r="H129" s="133"/>
       <c r="I129" s="133"/>
@@ -12894,7 +12909,7 @@
       <c r="C130" s="268"/>
       <c r="D130" s="142"/>
       <c r="E130" s="145"/>
-      <c r="F130" s="368"/>
+      <c r="F130" s="292"/>
       <c r="G130" s="133"/>
       <c r="H130" s="133"/>
       <c r="I130" s="133"/>
@@ -12926,7 +12941,7 @@
       <c r="C131" s="268"/>
       <c r="D131" s="142"/>
       <c r="E131" s="145"/>
-      <c r="F131" s="368"/>
+      <c r="F131" s="292"/>
       <c r="G131" s="133"/>
       <c r="H131" s="133"/>
       <c r="I131" s="133"/>
@@ -12958,7 +12973,7 @@
       <c r="C132" s="268"/>
       <c r="D132" s="142"/>
       <c r="E132" s="145"/>
-      <c r="F132" s="368"/>
+      <c r="F132" s="292"/>
       <c r="G132" s="133"/>
       <c r="H132" s="133"/>
       <c r="I132" s="133"/>
@@ -12990,7 +13005,7 @@
       <c r="C133" s="268"/>
       <c r="D133" s="142"/>
       <c r="E133" s="145"/>
-      <c r="F133" s="368"/>
+      <c r="F133" s="292"/>
       <c r="G133" s="133"/>
       <c r="H133" s="133"/>
       <c r="I133" s="133"/>
@@ -13022,7 +13037,7 @@
       <c r="C134" s="268"/>
       <c r="D134" s="142"/>
       <c r="E134" s="145"/>
-      <c r="F134" s="368"/>
+      <c r="F134" s="292"/>
       <c r="G134" s="133"/>
       <c r="H134" s="133"/>
       <c r="I134" s="133"/>
@@ -13054,7 +13069,7 @@
       <c r="C135" s="268"/>
       <c r="D135" s="142"/>
       <c r="E135" s="145"/>
-      <c r="F135" s="368"/>
+      <c r="F135" s="292"/>
       <c r="G135" s="133"/>
       <c r="H135" s="133"/>
       <c r="I135" s="133"/>
@@ -13086,7 +13101,7 @@
       <c r="C136" s="268"/>
       <c r="D136" s="142"/>
       <c r="E136" s="145"/>
-      <c r="F136" s="368"/>
+      <c r="F136" s="292"/>
       <c r="G136" s="133"/>
       <c r="H136" s="133"/>
       <c r="I136" s="133"/>
@@ -13118,7 +13133,7 @@
       <c r="C137" s="268"/>
       <c r="D137" s="142"/>
       <c r="E137" s="145"/>
-      <c r="F137" s="368"/>
+      <c r="F137" s="292"/>
       <c r="G137" s="133"/>
       <c r="H137" s="149"/>
       <c r="I137" s="149"/>
@@ -13150,7 +13165,7 @@
       <c r="C138" s="268"/>
       <c r="D138" s="142"/>
       <c r="E138" s="145"/>
-      <c r="F138" s="368"/>
+      <c r="F138" s="292"/>
       <c r="G138" s="133"/>
       <c r="H138" s="133"/>
       <c r="I138" s="133"/>
@@ -13182,7 +13197,7 @@
       <c r="C139" s="268"/>
       <c r="D139" s="142"/>
       <c r="E139" s="145"/>
-      <c r="F139" s="368"/>
+      <c r="F139" s="292"/>
       <c r="G139" s="133"/>
       <c r="H139" s="133"/>
       <c r="I139" s="133"/>
@@ -13214,7 +13229,7 @@
       <c r="C140" s="268"/>
       <c r="D140" s="142"/>
       <c r="E140" s="145"/>
-      <c r="F140" s="368"/>
+      <c r="F140" s="292"/>
       <c r="G140" s="133"/>
       <c r="H140" s="133"/>
       <c r="I140" s="133"/>
@@ -13246,7 +13261,7 @@
       <c r="C141" s="268"/>
       <c r="D141" s="142"/>
       <c r="E141" s="145"/>
-      <c r="F141" s="368"/>
+      <c r="F141" s="292"/>
       <c r="G141" s="133"/>
       <c r="H141" s="150"/>
       <c r="I141" s="150"/>
@@ -13278,7 +13293,7 @@
       <c r="C142" s="268"/>
       <c r="D142" s="142"/>
       <c r="E142" s="145"/>
-      <c r="F142" s="368"/>
+      <c r="F142" s="292"/>
       <c r="G142" s="133"/>
       <c r="H142" s="150"/>
       <c r="I142" s="150"/>
@@ -13310,7 +13325,7 @@
       <c r="C143" s="268"/>
       <c r="D143" s="142"/>
       <c r="E143" s="145"/>
-      <c r="F143" s="368"/>
+      <c r="F143" s="292"/>
       <c r="G143" s="133"/>
       <c r="H143" s="150"/>
       <c r="I143" s="150"/>
@@ -13342,7 +13357,7 @@
       <c r="C144" s="268"/>
       <c r="D144" s="142"/>
       <c r="E144" s="152"/>
-      <c r="F144" s="368"/>
+      <c r="F144" s="292"/>
       <c r="G144" s="133"/>
       <c r="H144" s="133"/>
       <c r="I144" s="133"/>
@@ -13374,7 +13389,7 @@
       <c r="C145" s="268"/>
       <c r="D145" s="142"/>
       <c r="E145" s="153"/>
-      <c r="F145" s="368"/>
+      <c r="F145" s="292"/>
       <c r="G145" s="133"/>
       <c r="H145" s="133"/>
       <c r="I145" s="133"/>
@@ -13406,7 +13421,7 @@
       <c r="C146" s="268"/>
       <c r="D146" s="142"/>
       <c r="E146" s="153"/>
-      <c r="F146" s="368"/>
+      <c r="F146" s="292"/>
       <c r="G146" s="133"/>
       <c r="H146" s="133"/>
       <c r="I146" s="133"/>
@@ -13438,7 +13453,7 @@
       <c r="C147" s="268"/>
       <c r="D147" s="142"/>
       <c r="E147" s="153"/>
-      <c r="F147" s="368"/>
+      <c r="F147" s="292"/>
       <c r="G147" s="133"/>
       <c r="H147" s="133"/>
       <c r="I147" s="133"/>
@@ -13470,7 +13485,7 @@
       <c r="C148" s="268"/>
       <c r="D148" s="142"/>
       <c r="E148" s="153"/>
-      <c r="F148" s="368"/>
+      <c r="F148" s="292"/>
       <c r="G148" s="133"/>
       <c r="H148" s="133"/>
       <c r="I148" s="133"/>
@@ -13502,7 +13517,7 @@
       <c r="C149" s="268"/>
       <c r="D149" s="142"/>
       <c r="E149" s="153"/>
-      <c r="F149" s="368"/>
+      <c r="F149" s="292"/>
       <c r="G149" s="133"/>
       <c r="H149" s="133"/>
       <c r="I149" s="133"/>
@@ -13534,7 +13549,7 @@
       <c r="C150" s="268"/>
       <c r="D150" s="142"/>
       <c r="E150" s="153"/>
-      <c r="F150" s="368"/>
+      <c r="F150" s="292"/>
       <c r="G150" s="133"/>
       <c r="H150" s="133"/>
       <c r="I150" s="133"/>
@@ -13566,7 +13581,7 @@
       <c r="C151" s="268"/>
       <c r="D151" s="142"/>
       <c r="E151" s="153"/>
-      <c r="F151" s="368"/>
+      <c r="F151" s="292"/>
       <c r="G151" s="133"/>
       <c r="H151" s="133"/>
       <c r="I151" s="133"/>
@@ -13598,7 +13613,7 @@
       <c r="C152" s="268"/>
       <c r="D152" s="142"/>
       <c r="E152" s="153"/>
-      <c r="F152" s="368"/>
+      <c r="F152" s="292"/>
       <c r="G152" s="133"/>
       <c r="H152" s="133"/>
       <c r="I152" s="133"/>
@@ -13630,7 +13645,7 @@
       <c r="C153" s="268"/>
       <c r="D153" s="142"/>
       <c r="E153" s="153"/>
-      <c r="F153" s="368"/>
+      <c r="F153" s="292"/>
       <c r="G153" s="133"/>
       <c r="H153" s="133"/>
       <c r="I153" s="133"/>
@@ -13662,7 +13677,7 @@
       <c r="C154" s="268"/>
       <c r="D154" s="142"/>
       <c r="E154" s="153"/>
-      <c r="F154" s="368"/>
+      <c r="F154" s="292"/>
       <c r="G154" s="133"/>
       <c r="H154" s="133"/>
       <c r="I154" s="133"/>
@@ -13694,7 +13709,7 @@
       <c r="C155" s="268"/>
       <c r="D155" s="142"/>
       <c r="E155" s="153"/>
-      <c r="F155" s="368"/>
+      <c r="F155" s="292"/>
       <c r="G155" s="133"/>
       <c r="H155" s="133"/>
       <c r="I155" s="133"/>
@@ -13726,7 +13741,7 @@
       <c r="C156" s="268"/>
       <c r="D156" s="142"/>
       <c r="E156" s="153"/>
-      <c r="F156" s="368"/>
+      <c r="F156" s="292"/>
       <c r="G156" s="133"/>
       <c r="H156" s="133"/>
       <c r="I156" s="133"/>
@@ -13758,7 +13773,7 @@
       <c r="C157" s="268"/>
       <c r="D157" s="142"/>
       <c r="E157" s="154"/>
-      <c r="F157" s="368"/>
+      <c r="F157" s="292"/>
       <c r="G157" s="133"/>
       <c r="H157" s="133"/>
       <c r="I157" s="133"/>
@@ -13790,7 +13805,7 @@
       <c r="C158" s="268"/>
       <c r="D158" s="142"/>
       <c r="E158" s="155"/>
-      <c r="F158" s="368"/>
+      <c r="F158" s="292"/>
       <c r="G158" s="133"/>
       <c r="H158" s="133"/>
       <c r="I158" s="133"/>
@@ -13821,8 +13836,8 @@
       <c r="B159" s="230"/>
       <c r="C159" s="268"/>
       <c r="D159" s="142"/>
-      <c r="E159" s="323"/>
-      <c r="F159" s="368"/>
+      <c r="E159" s="330"/>
+      <c r="F159" s="292"/>
       <c r="G159" s="133"/>
       <c r="H159" s="133"/>
       <c r="I159" s="133"/>
@@ -13830,7 +13845,7 @@
       <c r="K159" s="133"/>
       <c r="L159" s="133"/>
       <c r="M159" s="127"/>
-      <c r="N159" s="318"/>
+      <c r="N159" s="331"/>
       <c r="O159" s="128"/>
       <c r="P159" s="128"/>
       <c r="Q159" s="128"/>
@@ -13853,8 +13868,8 @@
       <c r="B160" s="230"/>
       <c r="C160" s="268"/>
       <c r="D160" s="142"/>
-      <c r="E160" s="323"/>
-      <c r="F160" s="368"/>
+      <c r="E160" s="330"/>
+      <c r="F160" s="292"/>
       <c r="G160" s="133"/>
       <c r="H160" s="133"/>
       <c r="I160" s="133"/>
@@ -13862,7 +13877,7 @@
       <c r="K160" s="133"/>
       <c r="L160" s="133"/>
       <c r="M160" s="127"/>
-      <c r="N160" s="318"/>
+      <c r="N160" s="331"/>
       <c r="O160" s="128"/>
       <c r="P160" s="128"/>
       <c r="Q160" s="128"/>
@@ -13885,8 +13900,8 @@
       <c r="B161" s="230"/>
       <c r="C161" s="268"/>
       <c r="D161" s="142"/>
-      <c r="E161" s="323"/>
-      <c r="F161" s="368"/>
+      <c r="E161" s="330"/>
+      <c r="F161" s="292"/>
       <c r="G161" s="133"/>
       <c r="H161" s="133"/>
       <c r="I161" s="133"/>
@@ -13894,7 +13909,7 @@
       <c r="K161" s="133"/>
       <c r="L161" s="133"/>
       <c r="M161" s="127"/>
-      <c r="N161" s="318"/>
+      <c r="N161" s="331"/>
       <c r="O161" s="128"/>
       <c r="P161" s="128"/>
       <c r="Q161" s="128"/>
@@ -13917,8 +13932,8 @@
       <c r="B162" s="230"/>
       <c r="C162" s="268"/>
       <c r="D162" s="142"/>
-      <c r="E162" s="323"/>
-      <c r="F162" s="368"/>
+      <c r="E162" s="330"/>
+      <c r="F162" s="292"/>
       <c r="G162" s="133"/>
       <c r="H162" s="133"/>
       <c r="I162" s="133"/>
@@ -13926,7 +13941,7 @@
       <c r="K162" s="133"/>
       <c r="L162" s="133"/>
       <c r="M162" s="127"/>
-      <c r="N162" s="318"/>
+      <c r="N162" s="331"/>
       <c r="O162" s="128"/>
       <c r="P162" s="128"/>
       <c r="Q162" s="128"/>
@@ -13949,8 +13964,8 @@
       <c r="B163" s="230"/>
       <c r="C163" s="268"/>
       <c r="D163" s="142"/>
-      <c r="E163" s="323"/>
-      <c r="F163" s="368"/>
+      <c r="E163" s="330"/>
+      <c r="F163" s="292"/>
       <c r="G163" s="133"/>
       <c r="H163" s="133"/>
       <c r="I163" s="133"/>
@@ -13958,7 +13973,7 @@
       <c r="K163" s="133"/>
       <c r="L163" s="133"/>
       <c r="M163" s="127"/>
-      <c r="N163" s="318"/>
+      <c r="N163" s="331"/>
       <c r="O163" s="128"/>
       <c r="P163" s="128"/>
       <c r="Q163" s="128"/>
@@ -13981,8 +13996,8 @@
       <c r="B164" s="230"/>
       <c r="C164" s="268"/>
       <c r="D164" s="142"/>
-      <c r="E164" s="323"/>
-      <c r="F164" s="368"/>
+      <c r="E164" s="330"/>
+      <c r="F164" s="292"/>
       <c r="G164" s="133"/>
       <c r="H164" s="133"/>
       <c r="I164" s="133"/>
@@ -13990,7 +14005,7 @@
       <c r="K164" s="133"/>
       <c r="L164" s="133"/>
       <c r="M164" s="127"/>
-      <c r="N164" s="318"/>
+      <c r="N164" s="331"/>
       <c r="O164" s="128"/>
       <c r="P164" s="128"/>
       <c r="Q164" s="128"/>
@@ -14013,8 +14028,8 @@
       <c r="B165" s="230"/>
       <c r="C165" s="268"/>
       <c r="D165" s="142"/>
-      <c r="E165" s="323"/>
-      <c r="F165" s="368"/>
+      <c r="E165" s="330"/>
+      <c r="F165" s="292"/>
       <c r="G165" s="133"/>
       <c r="H165" s="133"/>
       <c r="I165" s="133"/>
@@ -14022,7 +14037,7 @@
       <c r="K165" s="133"/>
       <c r="L165" s="133"/>
       <c r="M165" s="127"/>
-      <c r="N165" s="318"/>
+      <c r="N165" s="331"/>
       <c r="O165" s="128"/>
       <c r="P165" s="128"/>
       <c r="Q165" s="128"/>
@@ -14045,8 +14060,8 @@
       <c r="B166" s="230"/>
       <c r="C166" s="268"/>
       <c r="D166" s="142"/>
-      <c r="E166" s="323"/>
-      <c r="F166" s="368"/>
+      <c r="E166" s="330"/>
+      <c r="F166" s="292"/>
       <c r="G166" s="133"/>
       <c r="H166" s="133"/>
       <c r="I166" s="133"/>
@@ -14054,7 +14069,7 @@
       <c r="K166" s="133"/>
       <c r="L166" s="133"/>
       <c r="M166" s="127"/>
-      <c r="N166" s="318"/>
+      <c r="N166" s="331"/>
       <c r="O166" s="128"/>
       <c r="P166" s="128"/>
       <c r="Q166" s="128"/>
@@ -14077,8 +14092,8 @@
       <c r="B167" s="230"/>
       <c r="C167" s="268"/>
       <c r="D167" s="142"/>
-      <c r="E167" s="323"/>
-      <c r="F167" s="368"/>
+      <c r="E167" s="330"/>
+      <c r="F167" s="292"/>
       <c r="G167" s="133"/>
       <c r="H167" s="133"/>
       <c r="I167" s="133"/>
@@ -14109,8 +14124,8 @@
       <c r="B168" s="230"/>
       <c r="C168" s="268"/>
       <c r="D168" s="142"/>
-      <c r="E168" s="323"/>
-      <c r="F168" s="368"/>
+      <c r="E168" s="330"/>
+      <c r="F168" s="292"/>
       <c r="G168" s="133"/>
       <c r="H168" s="133"/>
       <c r="I168" s="133"/>
@@ -14141,8 +14156,8 @@
       <c r="B169" s="230"/>
       <c r="C169" s="268"/>
       <c r="D169" s="142"/>
-      <c r="E169" s="323"/>
-      <c r="F169" s="368"/>
+      <c r="E169" s="330"/>
+      <c r="F169" s="292"/>
       <c r="G169" s="133"/>
       <c r="H169" s="133"/>
       <c r="I169" s="133"/>
@@ -14174,7 +14189,7 @@
       <c r="C170" s="157"/>
       <c r="D170" s="158"/>
       <c r="E170" s="153"/>
-      <c r="F170" s="368"/>
+      <c r="F170" s="292"/>
       <c r="G170" s="133"/>
       <c r="H170" s="133"/>
       <c r="I170" s="133"/>
@@ -14207,8 +14222,8 @@
       <c r="D171" s="158" t="s">
         <v>158</v>
       </c>
-      <c r="E171" s="317"/>
-      <c r="F171" s="368"/>
+      <c r="E171" s="332"/>
+      <c r="F171" s="292"/>
       <c r="G171" s="133"/>
       <c r="H171" s="150"/>
       <c r="I171" s="150"/>
@@ -14239,8 +14254,8 @@
       <c r="B172" s="227"/>
       <c r="C172" s="155"/>
       <c r="D172" s="160"/>
-      <c r="E172" s="317"/>
-      <c r="F172" s="368"/>
+      <c r="E172" s="332"/>
+      <c r="F172" s="292"/>
       <c r="G172" s="133"/>
       <c r="H172" s="150"/>
       <c r="I172" s="150"/>
@@ -14271,8 +14286,8 @@
       <c r="B173" s="227"/>
       <c r="C173" s="155"/>
       <c r="D173" s="160"/>
-      <c r="E173" s="317"/>
-      <c r="F173" s="368"/>
+      <c r="E173" s="332"/>
+      <c r="F173" s="292"/>
       <c r="G173" s="133"/>
       <c r="H173" s="150"/>
       <c r="I173" s="150"/>
@@ -14303,8 +14318,8 @@
       <c r="B174" s="227"/>
       <c r="C174" s="155"/>
       <c r="D174" s="155"/>
-      <c r="E174" s="317"/>
-      <c r="F174" s="368"/>
+      <c r="E174" s="332"/>
+      <c r="F174" s="292"/>
       <c r="G174" s="133"/>
       <c r="H174" s="150"/>
       <c r="I174" s="150"/>
@@ -14335,8 +14350,8 @@
       <c r="B175" s="227"/>
       <c r="C175" s="159"/>
       <c r="D175" s="155"/>
-      <c r="E175" s="317"/>
-      <c r="F175" s="368"/>
+      <c r="E175" s="332"/>
+      <c r="F175" s="292"/>
       <c r="G175" s="133"/>
       <c r="H175" s="150"/>
       <c r="I175" s="150"/>
@@ -14367,8 +14382,8 @@
       <c r="B176" s="227"/>
       <c r="C176" s="159"/>
       <c r="D176" s="155"/>
-      <c r="E176" s="317"/>
-      <c r="F176" s="368"/>
+      <c r="E176" s="332"/>
+      <c r="F176" s="292"/>
       <c r="G176" s="133"/>
       <c r="H176" s="150"/>
       <c r="I176" s="150"/>
@@ -14399,8 +14414,8 @@
       <c r="B177" s="227"/>
       <c r="C177" s="159"/>
       <c r="D177" s="155"/>
-      <c r="E177" s="317"/>
-      <c r="F177" s="368"/>
+      <c r="E177" s="332"/>
+      <c r="F177" s="292"/>
       <c r="G177" s="133"/>
       <c r="H177" s="150"/>
       <c r="I177" s="150"/>
@@ -14431,8 +14446,8 @@
       <c r="B178" s="227"/>
       <c r="C178" s="159"/>
       <c r="D178" s="155"/>
-      <c r="E178" s="317"/>
-      <c r="F178" s="368"/>
+      <c r="E178" s="332"/>
+      <c r="F178" s="292"/>
       <c r="G178" s="133"/>
       <c r="H178" s="150"/>
       <c r="I178" s="150"/>
@@ -14463,8 +14478,8 @@
       <c r="B179" s="227"/>
       <c r="C179" s="159"/>
       <c r="D179" s="159"/>
-      <c r="E179" s="317"/>
-      <c r="F179" s="368"/>
+      <c r="E179" s="332"/>
+      <c r="F179" s="292"/>
       <c r="G179" s="133"/>
       <c r="H179" s="150"/>
       <c r="I179" s="150"/>
@@ -14496,7 +14511,7 @@
       <c r="C180" s="159"/>
       <c r="D180" s="159"/>
       <c r="E180" s="161"/>
-      <c r="F180" s="368"/>
+      <c r="F180" s="292"/>
       <c r="G180" s="133"/>
       <c r="H180" s="150"/>
       <c r="I180" s="150"/>
@@ -14528,7 +14543,7 @@
       <c r="C181" s="159"/>
       <c r="D181" s="159"/>
       <c r="E181" s="161"/>
-      <c r="F181" s="368"/>
+      <c r="F181" s="292"/>
       <c r="G181" s="133"/>
       <c r="H181" s="150"/>
       <c r="I181" s="150"/>
@@ -14560,7 +14575,7 @@
       <c r="C182" s="159"/>
       <c r="D182" s="159"/>
       <c r="E182" s="161"/>
-      <c r="F182" s="368"/>
+      <c r="F182" s="292"/>
       <c r="G182" s="133"/>
       <c r="H182" s="150"/>
       <c r="I182" s="150"/>
@@ -14592,7 +14607,7 @@
       <c r="C183" s="159"/>
       <c r="D183" s="159"/>
       <c r="E183" s="161"/>
-      <c r="F183" s="368"/>
+      <c r="F183" s="292"/>
       <c r="G183" s="133"/>
       <c r="H183" s="150"/>
       <c r="I183" s="150"/>
@@ -14624,7 +14639,7 @@
       <c r="C184" s="159"/>
       <c r="D184" s="159"/>
       <c r="E184" s="161"/>
-      <c r="F184" s="368"/>
+      <c r="F184" s="292"/>
       <c r="G184" s="133"/>
       <c r="H184" s="150"/>
       <c r="I184" s="150"/>
@@ -14656,7 +14671,7 @@
       <c r="C185" s="159"/>
       <c r="D185" s="159"/>
       <c r="E185" s="161"/>
-      <c r="F185" s="368"/>
+      <c r="F185" s="292"/>
       <c r="G185" s="133"/>
       <c r="H185" s="150"/>
       <c r="I185" s="150"/>
@@ -14688,7 +14703,7 @@
       <c r="C186" s="159"/>
       <c r="D186" s="159"/>
       <c r="E186" s="161"/>
-      <c r="F186" s="368"/>
+      <c r="F186" s="292"/>
       <c r="G186" s="133"/>
       <c r="H186" s="150"/>
       <c r="I186" s="150"/>
@@ -14720,7 +14735,7 @@
       <c r="C187" s="159"/>
       <c r="D187" s="159"/>
       <c r="E187" s="161"/>
-      <c r="F187" s="368"/>
+      <c r="F187" s="292"/>
       <c r="G187" s="133"/>
       <c r="H187" s="150"/>
       <c r="I187" s="150"/>
@@ -14752,7 +14767,7 @@
       <c r="C188" s="159"/>
       <c r="D188" s="159"/>
       <c r="E188" s="161"/>
-      <c r="F188" s="368"/>
+      <c r="F188" s="292"/>
       <c r="G188" s="133"/>
       <c r="H188" s="150"/>
       <c r="I188" s="150"/>
@@ -14784,7 +14799,7 @@
       <c r="C189" s="159"/>
       <c r="D189" s="159"/>
       <c r="E189" s="161"/>
-      <c r="F189" s="368"/>
+      <c r="F189" s="292"/>
       <c r="G189" s="133"/>
       <c r="H189" s="150"/>
       <c r="I189" s="150"/>
@@ -14816,7 +14831,7 @@
       <c r="C190" s="159"/>
       <c r="D190" s="159"/>
       <c r="E190" s="161"/>
-      <c r="F190" s="368"/>
+      <c r="F190" s="292"/>
       <c r="G190" s="133"/>
       <c r="H190" s="150"/>
       <c r="I190" s="150"/>
@@ -14848,7 +14863,7 @@
       <c r="C191" s="159"/>
       <c r="D191" s="159"/>
       <c r="E191" s="161"/>
-      <c r="F191" s="368"/>
+      <c r="F191" s="292"/>
       <c r="G191" s="133"/>
       <c r="H191" s="150"/>
       <c r="I191" s="150"/>
@@ -14880,7 +14895,7 @@
       <c r="C192" s="159"/>
       <c r="D192" s="159"/>
       <c r="E192" s="161"/>
-      <c r="F192" s="368"/>
+      <c r="F192" s="292"/>
       <c r="G192" s="133"/>
       <c r="H192" s="150"/>
       <c r="I192" s="150"/>
@@ -14912,7 +14927,7 @@
       <c r="C193" s="159"/>
       <c r="D193" s="159"/>
       <c r="E193" s="161"/>
-      <c r="F193" s="368"/>
+      <c r="F193" s="292"/>
       <c r="G193" s="133"/>
       <c r="H193" s="150"/>
       <c r="I193" s="150"/>
@@ -14944,7 +14959,7 @@
       <c r="C194" s="159"/>
       <c r="D194" s="159"/>
       <c r="E194" s="161"/>
-      <c r="F194" s="368"/>
+      <c r="F194" s="292"/>
       <c r="G194" s="133"/>
       <c r="H194" s="150"/>
       <c r="I194" s="150"/>
@@ -14976,7 +14991,7 @@
       <c r="C195" s="164"/>
       <c r="D195" s="165"/>
       <c r="E195" s="166"/>
-      <c r="F195" s="368"/>
+      <c r="F195" s="292"/>
       <c r="G195" s="133"/>
       <c r="H195" s="150"/>
       <c r="I195" s="150"/>
@@ -15008,7 +15023,7 @@
       <c r="C196" s="159"/>
       <c r="D196" s="167"/>
       <c r="E196" s="146"/>
-      <c r="F196" s="368"/>
+      <c r="F196" s="292"/>
       <c r="G196" s="133"/>
       <c r="H196" s="150"/>
       <c r="I196" s="150"/>
@@ -15040,7 +15055,7 @@
       <c r="C197" s="159"/>
       <c r="D197" s="167"/>
       <c r="E197" s="146"/>
-      <c r="F197" s="368"/>
+      <c r="F197" s="292"/>
       <c r="G197" s="133"/>
       <c r="H197" s="150"/>
       <c r="I197" s="150"/>
@@ -15072,7 +15087,7 @@
       <c r="C198" s="159"/>
       <c r="D198" s="167"/>
       <c r="E198" s="146"/>
-      <c r="F198" s="368"/>
+      <c r="F198" s="292"/>
       <c r="G198" s="133"/>
       <c r="H198" s="150"/>
       <c r="I198" s="150"/>
@@ -15104,7 +15119,7 @@
       <c r="C199" s="159"/>
       <c r="D199" s="146"/>
       <c r="E199" s="146"/>
-      <c r="F199" s="368"/>
+      <c r="F199" s="292"/>
       <c r="G199" s="133"/>
       <c r="H199" s="150"/>
       <c r="I199" s="150"/>
@@ -15136,7 +15151,7 @@
       <c r="C200" s="159"/>
       <c r="D200" s="167"/>
       <c r="E200" s="168"/>
-      <c r="F200" s="368"/>
+      <c r="F200" s="292"/>
       <c r="G200" s="133"/>
       <c r="H200" s="150"/>
       <c r="I200" s="150"/>
@@ -15168,7 +15183,7 @@
       <c r="C201" s="159"/>
       <c r="D201" s="167"/>
       <c r="E201" s="169"/>
-      <c r="F201" s="368"/>
+      <c r="F201" s="292"/>
       <c r="G201" s="133"/>
       <c r="H201" s="150"/>
       <c r="I201" s="150"/>
@@ -15200,7 +15215,7 @@
       <c r="C202" s="159"/>
       <c r="D202" s="167"/>
       <c r="E202" s="169"/>
-      <c r="F202" s="368"/>
+      <c r="F202" s="292"/>
       <c r="G202" s="133"/>
       <c r="H202" s="150"/>
       <c r="I202" s="150"/>
@@ -15232,7 +15247,7 @@
       <c r="C203" s="159"/>
       <c r="D203" s="167"/>
       <c r="E203" s="170"/>
-      <c r="F203" s="368"/>
+      <c r="F203" s="292"/>
       <c r="G203" s="133"/>
       <c r="H203" s="150"/>
       <c r="I203" s="150"/>
@@ -15264,7 +15279,7 @@
       <c r="C204" s="159"/>
       <c r="D204" s="146"/>
       <c r="E204" s="146"/>
-      <c r="F204" s="368"/>
+      <c r="F204" s="292"/>
       <c r="G204" s="133"/>
       <c r="H204" s="150"/>
       <c r="I204" s="150"/>
@@ -15296,7 +15311,7 @@
       <c r="C205" s="159"/>
       <c r="D205" s="159"/>
       <c r="E205" s="155"/>
-      <c r="F205" s="368"/>
+      <c r="F205" s="292"/>
       <c r="G205" s="133"/>
       <c r="H205" s="133"/>
       <c r="I205" s="133"/>
@@ -15328,7 +15343,7 @@
       <c r="C206" s="159"/>
       <c r="D206" s="159"/>
       <c r="E206" s="155"/>
-      <c r="F206" s="368"/>
+      <c r="F206" s="292"/>
       <c r="G206" s="172"/>
       <c r="H206" s="172"/>
       <c r="I206" s="172"/>
@@ -15360,7 +15375,7 @@
       <c r="C207" s="159"/>
       <c r="D207" s="159"/>
       <c r="E207" s="155"/>
-      <c r="F207" s="368"/>
+      <c r="F207" s="292"/>
       <c r="G207" s="172"/>
       <c r="H207" s="172"/>
       <c r="I207" s="172"/>
@@ -15846,8 +15861,8 @@
       <c r="I222" s="178"/>
       <c r="J222" s="178"/>
       <c r="K222" s="178"/>
-      <c r="L222" s="316"/>
-      <c r="M222" s="318"/>
+      <c r="L222" s="333"/>
+      <c r="M222" s="331"/>
       <c r="N222" s="173"/>
       <c r="O222" s="128"/>
       <c r="P222" s="128"/>
@@ -15878,8 +15893,8 @@
       <c r="I223" s="179"/>
       <c r="J223" s="179"/>
       <c r="K223" s="179"/>
-      <c r="L223" s="316"/>
-      <c r="M223" s="318"/>
+      <c r="L223" s="333"/>
+      <c r="M223" s="331"/>
       <c r="N223" s="173"/>
       <c r="O223" s="128"/>
       <c r="P223" s="128"/>
@@ -15910,8 +15925,8 @@
       <c r="I224" s="118"/>
       <c r="J224" s="118"/>
       <c r="K224" s="118"/>
-      <c r="L224" s="316"/>
-      <c r="M224" s="318"/>
+      <c r="L224" s="333"/>
+      <c r="M224" s="331"/>
       <c r="N224" s="173"/>
       <c r="O224" s="128"/>
       <c r="P224" s="128"/>
@@ -16126,9 +16141,9 @@
       <c r="A231" s="156"/>
       <c r="B231" s="227"/>
       <c r="C231" s="167"/>
-      <c r="D231" s="311"/>
+      <c r="D231" s="334"/>
       <c r="E231" s="155"/>
-      <c r="F231" s="319"/>
+      <c r="F231" s="335"/>
       <c r="G231" s="129"/>
       <c r="H231" s="129"/>
       <c r="I231" s="129"/>
@@ -16158,9 +16173,9 @@
       <c r="A232" s="156"/>
       <c r="B232" s="227"/>
       <c r="C232" s="167"/>
-      <c r="D232" s="311"/>
+      <c r="D232" s="334"/>
       <c r="E232" s="155"/>
-      <c r="F232" s="319"/>
+      <c r="F232" s="335"/>
       <c r="G232" s="129"/>
       <c r="H232" s="129"/>
       <c r="I232" s="129"/>
@@ -16190,9 +16205,9 @@
       <c r="A233" s="156"/>
       <c r="B233" s="227"/>
       <c r="C233" s="167"/>
-      <c r="D233" s="311"/>
+      <c r="D233" s="334"/>
       <c r="E233" s="155"/>
-      <c r="F233" s="319"/>
+      <c r="F233" s="335"/>
       <c r="G233" s="129"/>
       <c r="H233" s="129"/>
       <c r="I233" s="129"/>
@@ -16222,7 +16237,7 @@
       <c r="A234" s="156"/>
       <c r="B234" s="227"/>
       <c r="C234" s="167"/>
-      <c r="D234" s="311"/>
+      <c r="D234" s="334"/>
       <c r="E234" s="155"/>
       <c r="F234" s="134"/>
       <c r="G234" s="129"/>
@@ -16254,7 +16269,7 @@
       <c r="A235" s="156"/>
       <c r="B235" s="227"/>
       <c r="C235" s="167"/>
-      <c r="D235" s="311"/>
+      <c r="D235" s="334"/>
       <c r="E235" s="155"/>
       <c r="F235" s="134"/>
       <c r="G235" s="129"/>
@@ -16286,7 +16301,7 @@
       <c r="A236" s="156"/>
       <c r="B236" s="227"/>
       <c r="C236" s="167"/>
-      <c r="D236" s="311"/>
+      <c r="D236" s="334"/>
       <c r="E236" s="155"/>
       <c r="F236" s="134"/>
       <c r="G236" s="176"/>
@@ -16318,7 +16333,7 @@
       <c r="A237" s="156"/>
       <c r="B237" s="227"/>
       <c r="C237" s="167"/>
-      <c r="D237" s="311"/>
+      <c r="D237" s="334"/>
       <c r="E237" s="155"/>
       <c r="F237" s="134"/>
       <c r="G237" s="129"/>
@@ -16350,7 +16365,7 @@
       <c r="A238" s="156"/>
       <c r="B238" s="227"/>
       <c r="C238" s="167"/>
-      <c r="D238" s="312"/>
+      <c r="D238" s="336"/>
       <c r="E238" s="165"/>
       <c r="F238" s="134"/>
       <c r="G238" s="176"/>
@@ -16382,7 +16397,7 @@
       <c r="A239" s="156"/>
       <c r="B239" s="227"/>
       <c r="C239" s="167"/>
-      <c r="D239" s="312"/>
+      <c r="D239" s="336"/>
       <c r="E239" s="184"/>
       <c r="F239" s="134"/>
       <c r="G239" s="176"/>
@@ -16446,7 +16461,7 @@
       <c r="A241" s="156"/>
       <c r="B241" s="227"/>
       <c r="C241" s="167"/>
-      <c r="D241" s="312"/>
+      <c r="D241" s="336"/>
       <c r="E241" s="165"/>
       <c r="F241" s="134"/>
       <c r="G241" s="129"/>
@@ -16478,7 +16493,7 @@
       <c r="A242" s="156"/>
       <c r="B242" s="227"/>
       <c r="C242" s="167"/>
-      <c r="D242" s="312"/>
+      <c r="D242" s="336"/>
       <c r="E242" s="166"/>
       <c r="F242" s="134"/>
       <c r="G242" s="129"/>
@@ -16510,7 +16525,7 @@
       <c r="A243" s="156"/>
       <c r="B243" s="227"/>
       <c r="C243" s="167"/>
-      <c r="D243" s="312"/>
+      <c r="D243" s="336"/>
       <c r="E243" s="166"/>
       <c r="F243" s="134"/>
       <c r="G243" s="129"/>
@@ -16542,7 +16557,7 @@
       <c r="A244" s="156"/>
       <c r="B244" s="227"/>
       <c r="C244" s="167"/>
-      <c r="D244" s="312"/>
+      <c r="D244" s="336"/>
       <c r="E244" s="166"/>
       <c r="F244" s="134"/>
       <c r="G244" s="176"/>
@@ -16574,7 +16589,7 @@
       <c r="A245" s="156"/>
       <c r="B245" s="227"/>
       <c r="C245" s="167"/>
-      <c r="D245" s="312"/>
+      <c r="D245" s="336"/>
       <c r="E245" s="166"/>
       <c r="F245" s="186"/>
       <c r="G245" s="129"/>
@@ -16966,7 +16981,7 @@
       <c r="I257" s="176"/>
       <c r="J257" s="176"/>
       <c r="K257" s="176"/>
-      <c r="L257" s="315"/>
+      <c r="L257" s="337"/>
       <c r="M257" s="127"/>
       <c r="N257" s="148"/>
       <c r="O257" s="128"/>
@@ -16998,7 +17013,7 @@
       <c r="I258" s="176"/>
       <c r="J258" s="176"/>
       <c r="K258" s="176"/>
-      <c r="L258" s="315"/>
+      <c r="L258" s="337"/>
       <c r="M258" s="127"/>
       <c r="N258" s="148"/>
       <c r="O258" s="128"/>
@@ -17086,7 +17101,7 @@
       <c r="A261" s="156"/>
       <c r="B261" s="227"/>
       <c r="C261" s="167"/>
-      <c r="D261" s="312"/>
+      <c r="D261" s="336"/>
       <c r="E261" s="165"/>
       <c r="F261" s="134"/>
       <c r="G261" s="176"/>
@@ -17094,7 +17109,7 @@
       <c r="I261" s="176"/>
       <c r="J261" s="176"/>
       <c r="K261" s="176"/>
-      <c r="L261" s="316"/>
+      <c r="L261" s="333"/>
       <c r="M261" s="127"/>
       <c r="N261" s="148"/>
       <c r="O261" s="128"/>
@@ -17118,7 +17133,7 @@
       <c r="A262" s="156"/>
       <c r="B262" s="227"/>
       <c r="C262" s="167"/>
-      <c r="D262" s="312"/>
+      <c r="D262" s="336"/>
       <c r="E262" s="184"/>
       <c r="F262" s="134"/>
       <c r="G262" s="176"/>
@@ -17126,7 +17141,7 @@
       <c r="I262" s="176"/>
       <c r="J262" s="176"/>
       <c r="K262" s="176"/>
-      <c r="L262" s="316"/>
+      <c r="L262" s="333"/>
       <c r="M262" s="127"/>
       <c r="N262" s="148"/>
       <c r="O262" s="128"/>
@@ -17150,7 +17165,7 @@
       <c r="A263" s="156"/>
       <c r="B263" s="227"/>
       <c r="C263" s="167"/>
-      <c r="D263" s="311"/>
+      <c r="D263" s="334"/>
       <c r="E263" s="177"/>
       <c r="F263" s="146"/>
       <c r="G263" s="133"/>
@@ -17182,7 +17197,7 @@
       <c r="A264" s="156"/>
       <c r="B264" s="227"/>
       <c r="C264" s="167"/>
-      <c r="D264" s="311"/>
+      <c r="D264" s="334"/>
       <c r="E264" s="144"/>
       <c r="F264" s="146"/>
       <c r="G264" s="133"/>
@@ -17246,7 +17261,7 @@
       <c r="A266" s="156"/>
       <c r="B266" s="227"/>
       <c r="C266" s="167"/>
-      <c r="D266" s="312"/>
+      <c r="D266" s="336"/>
       <c r="E266" s="165"/>
       <c r="F266" s="146"/>
       <c r="G266" s="133"/>
@@ -17278,7 +17293,7 @@
       <c r="A267" s="156"/>
       <c r="B267" s="227"/>
       <c r="C267" s="167"/>
-      <c r="D267" s="312"/>
+      <c r="D267" s="336"/>
       <c r="E267" s="166"/>
       <c r="F267" s="146"/>
       <c r="G267" s="133"/>
@@ -17310,7 +17325,7 @@
       <c r="A268" s="156"/>
       <c r="B268" s="227"/>
       <c r="C268" s="167"/>
-      <c r="D268" s="312"/>
+      <c r="D268" s="336"/>
       <c r="E268" s="184"/>
       <c r="F268" s="146"/>
       <c r="G268" s="133"/>
@@ -17501,10 +17516,10 @@
     <row r="274" spans="1:30" ht="15.75" customHeight="1">
       <c r="A274" s="162"/>
       <c r="B274" s="162"/>
-      <c r="C274" s="313"/>
-      <c r="D274" s="311"/>
+      <c r="C274" s="338"/>
+      <c r="D274" s="334"/>
       <c r="E274" s="155"/>
-      <c r="F274" s="311"/>
+      <c r="F274" s="334"/>
       <c r="G274" s="129"/>
       <c r="H274" s="129"/>
       <c r="I274" s="129"/>
@@ -17533,10 +17548,10 @@
     <row r="275" spans="1:30" ht="15.75" customHeight="1">
       <c r="A275" s="162"/>
       <c r="B275" s="162"/>
-      <c r="C275" s="313"/>
-      <c r="D275" s="313"/>
+      <c r="C275" s="338"/>
+      <c r="D275" s="338"/>
       <c r="E275" s="155"/>
-      <c r="F275" s="311"/>
+      <c r="F275" s="334"/>
       <c r="G275" s="129"/>
       <c r="H275" s="129"/>
       <c r="I275" s="129"/>
@@ -17565,10 +17580,10 @@
     <row r="276" spans="1:30" ht="15.75" customHeight="1">
       <c r="A276" s="162"/>
       <c r="B276" s="162"/>
-      <c r="C276" s="313"/>
-      <c r="D276" s="313"/>
+      <c r="C276" s="338"/>
+      <c r="D276" s="338"/>
       <c r="E276" s="155"/>
-      <c r="F276" s="311"/>
+      <c r="F276" s="334"/>
       <c r="G276" s="129"/>
       <c r="H276" s="129"/>
       <c r="I276" s="129"/>
@@ -17597,10 +17612,10 @@
     <row r="277" spans="1:30" ht="15.75" customHeight="1">
       <c r="A277" s="162"/>
       <c r="B277" s="162"/>
-      <c r="C277" s="313"/>
-      <c r="D277" s="313"/>
+      <c r="C277" s="338"/>
+      <c r="D277" s="338"/>
       <c r="E277" s="155"/>
-      <c r="F277" s="311"/>
+      <c r="F277" s="334"/>
       <c r="G277" s="129"/>
       <c r="H277" s="129"/>
       <c r="I277" s="129"/>
@@ -17629,10 +17644,10 @@
     <row r="278" spans="1:30" ht="15.75" customHeight="1">
       <c r="A278" s="162"/>
       <c r="B278" s="162"/>
-      <c r="C278" s="313"/>
-      <c r="D278" s="313"/>
+      <c r="C278" s="338"/>
+      <c r="D278" s="338"/>
       <c r="E278" s="155"/>
-      <c r="F278" s="311"/>
+      <c r="F278" s="334"/>
       <c r="G278" s="129"/>
       <c r="H278" s="129"/>
       <c r="I278" s="129"/>
@@ -17661,10 +17676,10 @@
     <row r="279" spans="1:30" ht="15.75" customHeight="1">
       <c r="A279" s="162"/>
       <c r="B279" s="162"/>
-      <c r="C279" s="313"/>
-      <c r="D279" s="313"/>
+      <c r="C279" s="338"/>
+      <c r="D279" s="338"/>
       <c r="E279" s="155"/>
-      <c r="F279" s="311"/>
+      <c r="F279" s="334"/>
       <c r="G279" s="176"/>
       <c r="H279" s="176"/>
       <c r="I279" s="176"/>
@@ -17693,10 +17708,10 @@
     <row r="280" spans="1:30" ht="15.75" customHeight="1">
       <c r="A280" s="162"/>
       <c r="B280" s="162"/>
-      <c r="C280" s="313"/>
-      <c r="D280" s="313"/>
+      <c r="C280" s="338"/>
+      <c r="D280" s="338"/>
       <c r="E280" s="155"/>
-      <c r="F280" s="311"/>
+      <c r="F280" s="334"/>
       <c r="G280" s="129"/>
       <c r="H280" s="129"/>
       <c r="I280" s="129"/>
@@ -17725,10 +17740,10 @@
     <row r="281" spans="1:30" ht="15.75" customHeight="1">
       <c r="A281" s="162"/>
       <c r="B281" s="162"/>
-      <c r="C281" s="313"/>
-      <c r="D281" s="313"/>
+      <c r="C281" s="338"/>
+      <c r="D281" s="338"/>
       <c r="E281" s="155"/>
-      <c r="F281" s="311"/>
+      <c r="F281" s="334"/>
       <c r="G281" s="129"/>
       <c r="H281" s="129"/>
       <c r="I281" s="129"/>
@@ -17757,8 +17772,8 @@
     <row r="282" spans="1:30" ht="15.75" customHeight="1">
       <c r="A282" s="162"/>
       <c r="B282" s="162"/>
-      <c r="C282" s="313"/>
-      <c r="D282" s="313"/>
+      <c r="C282" s="338"/>
+      <c r="D282" s="338"/>
       <c r="E282" s="155"/>
       <c r="F282" s="159"/>
       <c r="G282" s="126"/>
@@ -17789,8 +17804,8 @@
     <row r="283" spans="1:30" ht="15.75" customHeight="1">
       <c r="A283" s="162"/>
       <c r="B283" s="162"/>
-      <c r="C283" s="313"/>
-      <c r="D283" s="313"/>
+      <c r="C283" s="338"/>
+      <c r="D283" s="338"/>
       <c r="E283" s="155"/>
       <c r="F283" s="159"/>
       <c r="G283" s="127"/>
@@ -17821,10 +17836,10 @@
     <row r="284" spans="1:30" ht="15.75" customHeight="1">
       <c r="A284" s="162"/>
       <c r="B284" s="162"/>
-      <c r="C284" s="313"/>
-      <c r="D284" s="313"/>
+      <c r="C284" s="338"/>
+      <c r="D284" s="338"/>
       <c r="E284" s="177"/>
-      <c r="F284" s="311"/>
+      <c r="F284" s="334"/>
       <c r="G284" s="133"/>
       <c r="H284" s="133"/>
       <c r="I284" s="133"/>
@@ -17853,10 +17868,10 @@
     <row r="285" spans="1:30" ht="15.75" customHeight="1">
       <c r="A285" s="162"/>
       <c r="B285" s="162"/>
-      <c r="C285" s="313"/>
-      <c r="D285" s="313"/>
+      <c r="C285" s="338"/>
+      <c r="D285" s="338"/>
       <c r="E285" s="200"/>
-      <c r="F285" s="311"/>
+      <c r="F285" s="334"/>
       <c r="G285" s="127"/>
       <c r="H285" s="127"/>
       <c r="I285" s="127"/>
@@ -17885,10 +17900,10 @@
     <row r="286" spans="1:30" ht="15.75" customHeight="1">
       <c r="A286" s="162"/>
       <c r="B286" s="162"/>
-      <c r="C286" s="313"/>
-      <c r="D286" s="313"/>
+      <c r="C286" s="338"/>
+      <c r="D286" s="338"/>
       <c r="E286" s="200"/>
-      <c r="F286" s="311"/>
+      <c r="F286" s="334"/>
       <c r="G286" s="127"/>
       <c r="H286" s="127"/>
       <c r="I286" s="127"/>
@@ -17917,10 +17932,10 @@
     <row r="287" spans="1:30" ht="15.75" customHeight="1">
       <c r="A287" s="162"/>
       <c r="B287" s="162"/>
-      <c r="C287" s="313"/>
-      <c r="D287" s="311"/>
+      <c r="C287" s="338"/>
+      <c r="D287" s="334"/>
       <c r="E287" s="144"/>
-      <c r="F287" s="311"/>
+      <c r="F287" s="334"/>
       <c r="G287" s="127"/>
       <c r="H287" s="127"/>
       <c r="I287" s="127"/>
@@ -17949,7 +17964,7 @@
     <row r="288" spans="1:30" ht="15.75" customHeight="1">
       <c r="A288" s="162"/>
       <c r="B288" s="162"/>
-      <c r="C288" s="313"/>
+      <c r="C288" s="338"/>
       <c r="D288" s="155"/>
       <c r="E288" s="200"/>
       <c r="F288" s="200"/>
@@ -17981,10 +17996,10 @@
     <row r="289" spans="1:30" ht="15.75" customHeight="1">
       <c r="A289" s="162"/>
       <c r="B289" s="162"/>
-      <c r="C289" s="313"/>
-      <c r="D289" s="311"/>
+      <c r="C289" s="338"/>
+      <c r="D289" s="334"/>
       <c r="E289" s="177"/>
-      <c r="F289" s="314"/>
+      <c r="F289" s="339"/>
       <c r="G289" s="133"/>
       <c r="H289" s="133"/>
       <c r="I289" s="133"/>
@@ -18013,10 +18028,10 @@
     <row r="290" spans="1:30" ht="15.75" customHeight="1">
       <c r="A290" s="162"/>
       <c r="B290" s="162"/>
-      <c r="C290" s="313"/>
-      <c r="D290" s="313"/>
+      <c r="C290" s="338"/>
+      <c r="D290" s="338"/>
       <c r="E290" s="144"/>
-      <c r="F290" s="314"/>
+      <c r="F290" s="339"/>
       <c r="G290" s="133"/>
       <c r="H290" s="133"/>
       <c r="I290" s="133"/>
@@ -18045,10 +18060,10 @@
     <row r="291" spans="1:30" ht="15.75" customHeight="1">
       <c r="A291" s="162"/>
       <c r="B291" s="162"/>
-      <c r="C291" s="313"/>
-      <c r="D291" s="313"/>
+      <c r="C291" s="338"/>
+      <c r="D291" s="338"/>
       <c r="E291" s="155"/>
-      <c r="F291" s="314"/>
+      <c r="F291" s="339"/>
       <c r="G291" s="133"/>
       <c r="H291" s="133"/>
       <c r="I291" s="133"/>
@@ -18077,10 +18092,10 @@
     <row r="292" spans="1:30" ht="15.75" customHeight="1">
       <c r="A292" s="162"/>
       <c r="B292" s="162"/>
-      <c r="C292" s="313"/>
-      <c r="D292" s="311"/>
+      <c r="C292" s="338"/>
+      <c r="D292" s="334"/>
       <c r="E292" s="155"/>
-      <c r="F292" s="314"/>
+      <c r="F292" s="339"/>
       <c r="G292" s="133"/>
       <c r="H292" s="133"/>
       <c r="I292" s="133"/>
@@ -18109,7 +18124,7 @@
     <row r="293" spans="1:30" ht="15.75" customHeight="1">
       <c r="A293" s="162"/>
       <c r="B293" s="162"/>
-      <c r="C293" s="313"/>
+      <c r="C293" s="338"/>
       <c r="D293" s="159"/>
       <c r="E293" s="159"/>
       <c r="F293" s="162"/>
@@ -18141,10 +18156,10 @@
     <row r="294" spans="1:30" ht="15.75" customHeight="1">
       <c r="A294" s="162"/>
       <c r="B294" s="162"/>
-      <c r="C294" s="313"/>
-      <c r="D294" s="311"/>
+      <c r="C294" s="338"/>
+      <c r="D294" s="334"/>
       <c r="E294" s="177"/>
-      <c r="F294" s="311"/>
+      <c r="F294" s="334"/>
       <c r="G294" s="133"/>
       <c r="H294" s="133"/>
       <c r="I294" s="133"/>
@@ -18173,10 +18188,10 @@
     <row r="295" spans="1:30" ht="15.75" customHeight="1">
       <c r="A295" s="162"/>
       <c r="B295" s="162"/>
-      <c r="C295" s="313"/>
-      <c r="D295" s="313"/>
+      <c r="C295" s="338"/>
+      <c r="D295" s="338"/>
       <c r="E295" s="200"/>
-      <c r="F295" s="311"/>
+      <c r="F295" s="334"/>
       <c r="G295" s="133"/>
       <c r="H295" s="133"/>
       <c r="I295" s="133"/>
@@ -18205,10 +18220,10 @@
     <row r="296" spans="1:30" ht="15.75" customHeight="1">
       <c r="A296" s="162"/>
       <c r="B296" s="162"/>
-      <c r="C296" s="313"/>
-      <c r="D296" s="313"/>
+      <c r="C296" s="338"/>
+      <c r="D296" s="338"/>
       <c r="E296" s="200"/>
-      <c r="F296" s="311"/>
+      <c r="F296" s="334"/>
       <c r="G296" s="133"/>
       <c r="H296" s="133"/>
       <c r="I296" s="133"/>
@@ -18237,10 +18252,10 @@
     <row r="297" spans="1:30" ht="15.75" customHeight="1">
       <c r="A297" s="162"/>
       <c r="B297" s="162"/>
-      <c r="C297" s="313"/>
-      <c r="D297" s="313"/>
+      <c r="C297" s="338"/>
+      <c r="D297" s="338"/>
       <c r="E297" s="200"/>
-      <c r="F297" s="311"/>
+      <c r="F297" s="334"/>
       <c r="G297" s="133"/>
       <c r="H297" s="133"/>
       <c r="I297" s="133"/>
@@ -18269,10 +18284,10 @@
     <row r="298" spans="1:30" ht="15.75" customHeight="1">
       <c r="A298" s="162"/>
       <c r="B298" s="162"/>
-      <c r="C298" s="313"/>
-      <c r="D298" s="313"/>
+      <c r="C298" s="338"/>
+      <c r="D298" s="338"/>
       <c r="E298" s="200"/>
-      <c r="F298" s="311"/>
+      <c r="F298" s="334"/>
       <c r="G298" s="129"/>
       <c r="H298" s="129"/>
       <c r="I298" s="129"/>
@@ -18301,10 +18316,10 @@
     <row r="299" spans="1:30" ht="15.75" customHeight="1">
       <c r="A299" s="162"/>
       <c r="B299" s="162"/>
-      <c r="C299" s="313"/>
-      <c r="D299" s="313"/>
+      <c r="C299" s="338"/>
+      <c r="D299" s="338"/>
       <c r="E299" s="144"/>
-      <c r="F299" s="311"/>
+      <c r="F299" s="334"/>
       <c r="G299" s="129"/>
       <c r="H299" s="129"/>
       <c r="I299" s="129"/>
@@ -18333,10 +18348,10 @@
     <row r="300" spans="1:30" ht="15.75" customHeight="1">
       <c r="A300" s="162"/>
       <c r="B300" s="162"/>
-      <c r="C300" s="313"/>
-      <c r="D300" s="313"/>
+      <c r="C300" s="338"/>
+      <c r="D300" s="338"/>
       <c r="E300" s="177"/>
-      <c r="F300" s="311"/>
+      <c r="F300" s="334"/>
       <c r="G300" s="133"/>
       <c r="H300" s="133"/>
       <c r="I300" s="133"/>
@@ -18365,10 +18380,10 @@
     <row r="301" spans="1:30" ht="15.75" customHeight="1">
       <c r="A301" s="162"/>
       <c r="B301" s="162"/>
-      <c r="C301" s="313"/>
-      <c r="D301" s="313"/>
+      <c r="C301" s="338"/>
+      <c r="D301" s="338"/>
       <c r="E301" s="200"/>
-      <c r="F301" s="311"/>
+      <c r="F301" s="334"/>
       <c r="G301" s="127"/>
       <c r="H301" s="127"/>
       <c r="I301" s="127"/>
@@ -18397,10 +18412,10 @@
     <row r="302" spans="1:30" ht="15.75" customHeight="1">
       <c r="A302" s="162"/>
       <c r="B302" s="162"/>
-      <c r="C302" s="313"/>
-      <c r="D302" s="313"/>
+      <c r="C302" s="338"/>
+      <c r="D302" s="338"/>
       <c r="E302" s="200"/>
-      <c r="F302" s="311"/>
+      <c r="F302" s="334"/>
       <c r="G302" s="127"/>
       <c r="H302" s="127"/>
       <c r="I302" s="127"/>
@@ -18429,10 +18444,10 @@
     <row r="303" spans="1:30" ht="15.75" customHeight="1">
       <c r="A303" s="162"/>
       <c r="B303" s="162"/>
-      <c r="C303" s="313"/>
-      <c r="D303" s="313"/>
+      <c r="C303" s="338"/>
+      <c r="D303" s="338"/>
       <c r="E303" s="144"/>
-      <c r="F303" s="311"/>
+      <c r="F303" s="334"/>
       <c r="G303" s="127"/>
       <c r="H303" s="127"/>
       <c r="I303" s="127"/>
@@ -20636,6 +20651,37 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="C274:C303"/>
+    <mergeCell ref="D274:D287"/>
+    <mergeCell ref="D294:D303"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="L257:L258"/>
+    <mergeCell ref="D261:D262"/>
+    <mergeCell ref="L261:L262"/>
+    <mergeCell ref="F274:F281"/>
+    <mergeCell ref="F284:F287"/>
+    <mergeCell ref="D263:D264"/>
+    <mergeCell ref="D266:D268"/>
+    <mergeCell ref="D231:D237"/>
+    <mergeCell ref="F231:F233"/>
+    <mergeCell ref="F294:F299"/>
+    <mergeCell ref="F300:F303"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="D241:D245"/>
+    <mergeCell ref="D289:D292"/>
+    <mergeCell ref="F289:F290"/>
+    <mergeCell ref="F291:F292"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="E159:E169"/>
+    <mergeCell ref="N159:N166"/>
+    <mergeCell ref="E171:E179"/>
+    <mergeCell ref="L222:L224"/>
+    <mergeCell ref="M222:M224"/>
+    <mergeCell ref="E92:E101"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="E61:E91"/>
+    <mergeCell ref="E106:E112"/>
+    <mergeCell ref="E114:E122"/>
     <mergeCell ref="C10:C59"/>
     <mergeCell ref="D42:D57"/>
     <mergeCell ref="E42:E57"/>
@@ -20650,37 +20696,6 @@
     <mergeCell ref="E10:E40"/>
     <mergeCell ref="D15:D37"/>
     <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E92:E101"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="E61:E91"/>
-    <mergeCell ref="E106:E112"/>
-    <mergeCell ref="E114:E122"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="E159:E169"/>
-    <mergeCell ref="N159:N166"/>
-    <mergeCell ref="E171:E179"/>
-    <mergeCell ref="L222:L224"/>
-    <mergeCell ref="M222:M224"/>
-    <mergeCell ref="D231:D237"/>
-    <mergeCell ref="F231:F233"/>
-    <mergeCell ref="F294:F299"/>
-    <mergeCell ref="F300:F303"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="D241:D245"/>
-    <mergeCell ref="L257:L258"/>
-    <mergeCell ref="D261:D262"/>
-    <mergeCell ref="L261:L262"/>
-    <mergeCell ref="F274:F281"/>
-    <mergeCell ref="F284:F287"/>
-    <mergeCell ref="D289:D292"/>
-    <mergeCell ref="F289:F290"/>
-    <mergeCell ref="F291:F292"/>
-    <mergeCell ref="D263:D264"/>
-    <mergeCell ref="D266:D268"/>
-    <mergeCell ref="C274:C303"/>
-    <mergeCell ref="D274:D287"/>
-    <mergeCell ref="D294:D303"/>
-    <mergeCell ref="D61:D64"/>
   </mergeCells>
   <conditionalFormatting sqref="L205:L210 L212:L213 L250 L264:L273 M80:M90 M92:M95 M97:M101 M103:M104 M106:M110 M112 M114:M371 M42:M46 M52:M53 M14:M40 M58:M78">
     <cfRule type="cellIs" dxfId="55" priority="10" operator="equal">
@@ -20998,110 +21013,110 @@
   <sheetData>
     <row r="2" spans="4:13" ht="14.4" thickBot="1"/>
     <row r="3" spans="4:13" ht="13.5" customHeight="1" thickBot="1">
-      <c r="D3" s="362" t="s">
+      <c r="D3" s="365" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="362"/>
-      <c r="G3" s="353" t="s">
+      <c r="E3" s="365"/>
+      <c r="G3" s="356" t="s">
         <v>159</v>
       </c>
-      <c r="H3" s="354"/>
-      <c r="I3" s="354"/>
-      <c r="J3" s="354"/>
-      <c r="K3" s="354"/>
-      <c r="L3" s="354"/>
-      <c r="M3" s="355"/>
+      <c r="H3" s="357"/>
+      <c r="I3" s="357"/>
+      <c r="J3" s="357"/>
+      <c r="K3" s="357"/>
+      <c r="L3" s="357"/>
+      <c r="M3" s="358"/>
     </row>
     <row r="4" spans="4:13" ht="14.4" customHeight="1" thickBot="1">
-      <c r="D4" s="362"/>
-      <c r="E4" s="362"/>
-      <c r="G4" s="356"/>
-      <c r="H4" s="357"/>
-      <c r="I4" s="357"/>
-      <c r="J4" s="357"/>
-      <c r="K4" s="357"/>
-      <c r="L4" s="357"/>
-      <c r="M4" s="358"/>
+      <c r="D4" s="365"/>
+      <c r="E4" s="365"/>
+      <c r="G4" s="359"/>
+      <c r="H4" s="360"/>
+      <c r="I4" s="360"/>
+      <c r="J4" s="360"/>
+      <c r="K4" s="360"/>
+      <c r="L4" s="360"/>
+      <c r="M4" s="361"/>
     </row>
     <row r="5" spans="4:13" ht="14.4" customHeight="1" thickBot="1">
-      <c r="D5" s="362"/>
-      <c r="E5" s="362"/>
-      <c r="G5" s="356"/>
-      <c r="H5" s="357"/>
-      <c r="I5" s="357"/>
-      <c r="J5" s="357"/>
-      <c r="K5" s="357"/>
-      <c r="L5" s="357"/>
-      <c r="M5" s="358"/>
+      <c r="D5" s="365"/>
+      <c r="E5" s="365"/>
+      <c r="G5" s="359"/>
+      <c r="H5" s="360"/>
+      <c r="I5" s="360"/>
+      <c r="J5" s="360"/>
+      <c r="K5" s="360"/>
+      <c r="L5" s="360"/>
+      <c r="M5" s="361"/>
     </row>
     <row r="6" spans="4:13" ht="14.4" customHeight="1" thickBot="1">
-      <c r="D6" s="362"/>
-      <c r="E6" s="362"/>
-      <c r="G6" s="359"/>
-      <c r="H6" s="360"/>
-      <c r="I6" s="360"/>
-      <c r="J6" s="360"/>
-      <c r="K6" s="360"/>
-      <c r="L6" s="360"/>
-      <c r="M6" s="361"/>
+      <c r="D6" s="365"/>
+      <c r="E6" s="365"/>
+      <c r="G6" s="362"/>
+      <c r="H6" s="363"/>
+      <c r="I6" s="363"/>
+      <c r="J6" s="363"/>
+      <c r="K6" s="363"/>
+      <c r="L6" s="363"/>
+      <c r="M6" s="364"/>
     </row>
     <row r="7" spans="4:13" ht="15" customHeight="1">
-      <c r="D7" s="363" t="s">
+      <c r="D7" s="366" t="s">
         <v>436</v>
       </c>
-      <c r="E7" s="363"/>
-      <c r="G7" s="341" t="s">
+      <c r="E7" s="366"/>
+      <c r="G7" s="344" t="s">
         <v>438</v>
       </c>
-      <c r="H7" s="342"/>
-      <c r="I7" s="342"/>
-      <c r="J7" s="342"/>
-      <c r="K7" s="342"/>
-      <c r="L7" s="342"/>
-      <c r="M7" s="343"/>
+      <c r="H7" s="345"/>
+      <c r="I7" s="345"/>
+      <c r="J7" s="345"/>
+      <c r="K7" s="345"/>
+      <c r="L7" s="345"/>
+      <c r="M7" s="346"/>
     </row>
     <row r="8" spans="4:13" ht="18.75" customHeight="1" thickBot="1">
-      <c r="D8" s="363"/>
-      <c r="E8" s="363"/>
-      <c r="G8" s="344"/>
-      <c r="H8" s="345"/>
-      <c r="I8" s="345"/>
-      <c r="J8" s="345"/>
-      <c r="K8" s="345"/>
-      <c r="L8" s="345"/>
-      <c r="M8" s="346"/>
+      <c r="D8" s="366"/>
+      <c r="E8" s="366"/>
+      <c r="G8" s="347"/>
+      <c r="H8" s="348"/>
+      <c r="I8" s="348"/>
+      <c r="J8" s="348"/>
+      <c r="K8" s="348"/>
+      <c r="L8" s="348"/>
+      <c r="M8" s="349"/>
     </row>
     <row r="9" spans="4:13" ht="13.5" customHeight="1">
-      <c r="D9" s="364" t="s">
+      <c r="D9" s="367" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="364"/>
-      <c r="G9" s="347" t="s">
+      <c r="E9" s="367"/>
+      <c r="G9" s="350" t="s">
         <v>439</v>
       </c>
-      <c r="H9" s="348"/>
-      <c r="I9" s="348"/>
-      <c r="J9" s="348"/>
-      <c r="K9" s="348"/>
-      <c r="L9" s="348"/>
-      <c r="M9" s="349"/>
+      <c r="H9" s="351"/>
+      <c r="I9" s="351"/>
+      <c r="J9" s="351"/>
+      <c r="K9" s="351"/>
+      <c r="L9" s="351"/>
+      <c r="M9" s="352"/>
     </row>
     <row r="10" spans="4:13" ht="21" customHeight="1" thickBot="1">
-      <c r="D10" s="364"/>
-      <c r="E10" s="364"/>
-      <c r="G10" s="350"/>
-      <c r="H10" s="351"/>
-      <c r="I10" s="351"/>
-      <c r="J10" s="351"/>
-      <c r="K10" s="351"/>
-      <c r="L10" s="351"/>
-      <c r="M10" s="352"/>
+      <c r="D10" s="367"/>
+      <c r="E10" s="367"/>
+      <c r="G10" s="353"/>
+      <c r="H10" s="354"/>
+      <c r="I10" s="354"/>
+      <c r="J10" s="354"/>
+      <c r="K10" s="354"/>
+      <c r="L10" s="354"/>
+      <c r="M10" s="355"/>
     </row>
     <row r="11" spans="4:13" ht="21" customHeight="1">
-      <c r="D11" s="365" t="s">
+      <c r="D11" s="343" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="365"/>
+      <c r="E11" s="343"/>
       <c r="G11" s="281"/>
       <c r="H11" s="282"/>
       <c r="I11" s="282"/>
@@ -21210,7 +21225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -21226,30 +21241,30 @@
     <row r="1" spans="2:8" s="210" customFormat="1">
       <c r="E1" s="214"/>
     </row>
-    <row r="2" spans="2:8" s="210" customFormat="1">
+    <row r="2" spans="2:8" s="210" customFormat="1" ht="14.4" thickBot="1">
       <c r="E2" s="214"/>
     </row>
-    <row r="3" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B3" s="366" t="s">
+    <row r="3" spans="2:8" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B3" s="368" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="366"/>
-      <c r="D3" s="366"/>
-      <c r="E3" s="366"/>
+      <c r="C3" s="368"/>
+      <c r="D3" s="368"/>
+      <c r="E3" s="368"/>
       <c r="F3" s="215"/>
       <c r="G3" s="215"/>
       <c r="H3" s="215"/>
     </row>
-    <row r="4" spans="2:8" ht="45.75" customHeight="1">
-      <c r="B4" s="366"/>
-      <c r="C4" s="366"/>
-      <c r="D4" s="366"/>
-      <c r="E4" s="366"/>
+    <row r="4" spans="2:8" ht="45.75" customHeight="1" thickBot="1">
+      <c r="B4" s="368"/>
+      <c r="C4" s="368"/>
+      <c r="D4" s="368"/>
+      <c r="E4" s="368"/>
       <c r="F4" s="215"/>
       <c r="G4" s="215"/>
       <c r="H4" s="215"/>
     </row>
-    <row r="5" spans="2:8" ht="44.25" customHeight="1">
+    <row r="5" spans="2:8" ht="44.25" customHeight="1" thickBot="1">
       <c r="B5" s="216" t="s">
         <v>62</v>
       </c>
@@ -21263,7 +21278,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="2:8" s="218" customFormat="1" ht="27.75" customHeight="1">
+    <row r="6" spans="2:8" s="218" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
       <c r="B6" s="219">
         <v>1</v>
       </c>
@@ -21277,7 +21292,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="7" spans="2:8" s="218" customFormat="1" ht="29.25" customHeight="1">
+    <row r="7" spans="2:8" s="218" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
       <c r="B7" s="219">
         <v>2</v>
       </c>
@@ -21291,7 +21306,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="8" spans="2:8" s="224" customFormat="1" ht="27.75" customHeight="1">
+    <row r="8" spans="2:8" s="224" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
       <c r="B8" s="219">
         <v>3</v>
       </c>
@@ -21305,7 +21320,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="9" spans="2:8" s="224" customFormat="1" ht="29.25" customHeight="1">
+    <row r="9" spans="2:8" s="224" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
       <c r="B9" s="219">
         <v>4</v>
       </c>
@@ -21319,7 +21334,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="2:8" s="224" customFormat="1" ht="28.5" customHeight="1">
+    <row r="10" spans="2:8" s="224" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
       <c r="B10" s="219">
         <v>5</v>
       </c>
@@ -21333,7 +21348,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="11" spans="2:8" s="224" customFormat="1" ht="27.75" customHeight="1">
+    <row r="11" spans="2:8" s="224" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
       <c r="B11" s="219">
         <v>6</v>
       </c>
@@ -21347,7 +21362,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="2:8" s="224" customFormat="1" ht="29.25" customHeight="1">
+    <row r="12" spans="2:8" s="224" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
       <c r="B12" s="219">
         <v>7</v>
       </c>
@@ -21361,7 +21376,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="2:8" s="224" customFormat="1" ht="29.25" customHeight="1">
+    <row r="13" spans="2:8" s="224" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
       <c r="B13" s="219">
         <v>8</v>
       </c>
@@ -21375,7 +21390,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="2:8" s="224" customFormat="1" ht="28.5" customHeight="1">
+    <row r="14" spans="2:8" s="224" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
       <c r="B14" s="219">
         <v>9</v>
       </c>
@@ -21389,7 +21404,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="2:8" s="224" customFormat="1" ht="28.5" customHeight="1">
+    <row r="15" spans="2:8" s="224" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
       <c r="B15" s="219">
         <v>10</v>
       </c>
@@ -21403,7 +21418,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="2:8" s="224" customFormat="1" ht="28.5" customHeight="1">
+    <row r="16" spans="2:8" s="224" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
       <c r="B16" s="219">
         <v>11</v>
       </c>
